--- a/data/ReviewerSearch/Reviewer.Evidence.xlsx
+++ b/data/ReviewerSearch/Reviewer.Evidence.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Data\PostDoc\grazing.meta\data\ReviewerSearch\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51472DF-337F-4164-9FB8-0F7B5122E90E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B70EB8A-1539-48E8-877D-543DC6AF824F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2920" uniqueCount="1221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2931" uniqueCount="1224">
   <si>
     <t>uniqueID</t>
   </si>
@@ -1512,9 +1512,6 @@
     <t>Houston, Wayne A.; Melzer, Alistair</t>
   </si>
   <si>
-    <t>full text behind paywall, but abstract looks promising</t>
-  </si>
-  <si>
     <t>Grazing and warming effects on shrub growth and plant species composition in subalpine dry tundra: An experimental approach</t>
   </si>
   <si>
@@ -3691,6 +3688,18 @@
   </si>
   <si>
     <t>co-occurring</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>camera traps</t>
+  </si>
+  <si>
+    <t>no data available</t>
+  </si>
+  <si>
+    <t>suction</t>
   </si>
 </sst>
 </file>
@@ -3991,9 +4000,9 @@
   </sheetPr>
   <dimension ref="A1:V497"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V166" sqref="V166"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A183" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I198" sqref="I198"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4030,43 +4039,43 @@
         <v>8</v>
       </c>
       <c r="J1" s="5" t="s">
+        <v>1187</v>
+      </c>
+      <c r="K1" s="5" t="s">
         <v>1188</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>1189</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>1190</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>1191</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>1192</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>1193</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>1194</v>
       </c>
-      <c r="Q1" s="5" t="s">
+      <c r="R1" s="5" t="s">
         <v>1195</v>
       </c>
-      <c r="R1" s="5" t="s">
+      <c r="S1" s="5" t="s">
         <v>1196</v>
       </c>
-      <c r="S1" s="5" t="s">
+      <c r="T1" s="5" t="s">
         <v>1197</v>
       </c>
-      <c r="T1" s="5" t="s">
+      <c r="U1" s="5" t="s">
         <v>1198</v>
       </c>
-      <c r="U1" s="5" t="s">
+      <c r="V1" s="5" t="s">
         <v>1199</v>
-      </c>
-      <c r="V1" s="5" t="s">
-        <v>1200</v>
       </c>
     </row>
     <row r="2" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
@@ -4950,16 +4959,16 @@
         <v>112</v>
       </c>
       <c r="I35" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="J35" s="1" t="s">
+        <v>1211</v>
+      </c>
+      <c r="K35" s="1" t="s">
         <v>1212</v>
       </c>
-      <c r="K35" s="1" t="s">
-        <v>1213</v>
-      </c>
       <c r="L35" s="1" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="N35" s="1" t="s">
         <v>13</v>
@@ -4974,13 +4983,13 @@
         <v>-93.98</v>
       </c>
       <c r="T35" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="U35">
         <v>5</v>
       </c>
       <c r="V35" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
@@ -5032,19 +5041,19 @@
         <v>112</v>
       </c>
       <c r="I37" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="K37" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="L37" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="N37" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="N37" s="1" t="s">
-        <v>1206</v>
       </c>
       <c r="P37">
         <v>1</v>
@@ -5056,13 +5065,13 @@
         <v>146.46700000000001</v>
       </c>
       <c r="T37" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="U37">
         <v>3</v>
       </c>
       <c r="V37" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
     </row>
     <row r="38" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
@@ -6986,7 +6995,7 @@
         <v>13</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="I111" s="1"/>
     </row>
@@ -7377,22 +7386,22 @@
         <v>112</v>
       </c>
       <c r="I126" s="1" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J126" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="J126" s="1" t="s">
+      <c r="K126" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="K126" s="1" t="s">
+      <c r="L126" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="L126" s="1" t="s">
+      <c r="M126">
+        <v>12</v>
+      </c>
+      <c r="N126" s="1" t="s">
         <v>1205</v>
-      </c>
-      <c r="M126">
-        <v>12</v>
-      </c>
-      <c r="N126" s="1" t="s">
-        <v>1206</v>
       </c>
       <c r="O126">
         <v>3</v>
@@ -7407,13 +7416,13 @@
         <v>-28</v>
       </c>
       <c r="T126" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="U126">
         <v>4</v>
       </c>
       <c r="V126" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="127" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
@@ -7465,22 +7474,22 @@
         <v>112</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="K128" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="L128" s="1" t="s">
         <v>1204</v>
-      </c>
-      <c r="L128" s="1" t="s">
-        <v>1205</v>
       </c>
       <c r="M128">
         <v>1</v>
       </c>
       <c r="N128" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O128">
         <v>3</v>
@@ -7495,16 +7504,16 @@
         <v>138.93</v>
       </c>
       <c r="T128" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="U128">
         <v>6</v>
       </c>
       <c r="V128" t="s">
-        <v>1219</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="129" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A129" s="1">
         <v>3121</v>
       </c>
@@ -7530,7 +7539,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A130" s="1">
         <v>3122</v>
       </c>
@@ -7556,7 +7565,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A131" s="1">
         <v>3123</v>
       </c>
@@ -7582,7 +7591,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A132" s="1">
         <v>3124</v>
       </c>
@@ -7608,7 +7617,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A133" s="1">
         <v>3125</v>
       </c>
@@ -7634,7 +7643,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A134" s="1">
         <v>3126</v>
       </c>
@@ -7660,7 +7669,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A135" s="1">
         <v>3127</v>
       </c>
@@ -7683,10 +7692,43 @@
         <v>112</v>
       </c>
       <c r="I135" s="1" t="s">
-        <v>421</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1201</v>
+      </c>
+      <c r="J135" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K135" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="L135" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="N135" s="1" t="s">
+        <v>1219</v>
+      </c>
+      <c r="O135">
+        <v>3</v>
+      </c>
+      <c r="P135">
+        <v>3</v>
+      </c>
+      <c r="Q135">
+        <v>0.29480000000000001</v>
+      </c>
+      <c r="R135">
+        <v>36.255200000000002</v>
+      </c>
+      <c r="T135" t="s">
+        <v>1220</v>
+      </c>
+      <c r="U135">
+        <v>4</v>
+      </c>
+      <c r="V135" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="136" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A136" s="1">
         <v>3128</v>
       </c>
@@ -7712,7 +7754,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A137" s="1">
         <v>3129</v>
       </c>
@@ -7738,7 +7780,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A138" s="1">
         <v>3130</v>
       </c>
@@ -7764,7 +7806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A139" s="1">
         <v>3131</v>
       </c>
@@ -7790,7 +7832,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A140" s="1">
         <v>3132</v>
       </c>
@@ -7816,7 +7858,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A141" s="1">
         <v>3133</v>
       </c>
@@ -7842,7 +7884,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A142" s="1">
         <v>3134</v>
       </c>
@@ -7868,7 +7910,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A143" s="1">
         <v>3135</v>
       </c>
@@ -7894,7 +7936,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A144" s="1">
         <v>3136</v>
       </c>
@@ -7995,7 +8037,7 @@
         <v>13</v>
       </c>
       <c r="H147" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="I147" s="2"/>
     </row>
@@ -8204,22 +8246,22 @@
         <v>112</v>
       </c>
       <c r="I155" s="6" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="J155" s="8" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="K155" s="8" t="s">
+        <v>1203</v>
+      </c>
+      <c r="L155" s="8" t="s">
         <v>1204</v>
-      </c>
-      <c r="L155" s="8" t="s">
-        <v>1205</v>
       </c>
       <c r="M155">
         <v>1</v>
       </c>
       <c r="N155" s="8" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="P155">
         <v>3</v>
@@ -8231,7 +8273,7 @@
         <v>17.667000000000002</v>
       </c>
       <c r="T155" s="7" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="U155" s="7">
         <v>2</v>
@@ -8520,19 +8562,19 @@
         <v>112</v>
       </c>
       <c r="I166" s="2" t="s">
+        <v>1201</v>
+      </c>
+      <c r="J166" s="1" t="s">
         <v>1202</v>
       </c>
-      <c r="J166" s="1" t="s">
+      <c r="K166" s="1" t="s">
         <v>1203</v>
       </c>
-      <c r="K166" s="1" t="s">
+      <c r="L166" s="1" t="s">
         <v>1204</v>
       </c>
-      <c r="L166" s="1" t="s">
-        <v>1205</v>
-      </c>
       <c r="N166" s="1" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O166">
         <v>2</v>
@@ -8547,7 +8589,7 @@
         <v>151.26429999999999</v>
       </c>
       <c r="T166" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="U166">
         <v>5</v>
@@ -8628,7 +8670,7 @@
         <v>112</v>
       </c>
       <c r="I169" s="2" t="s">
-        <v>113</v>
+        <v>1222</v>
       </c>
     </row>
     <row r="170" spans="1:21" ht="12.75" x14ac:dyDescent="0.2">
@@ -9229,7 +9271,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="193" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A193" s="1">
         <v>3185</v>
       </c>
@@ -9255,7 +9297,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="194" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A194" s="1">
         <v>3186</v>
       </c>
@@ -9281,7 +9323,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="195" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A195" s="1">
         <v>3187</v>
       </c>
@@ -9307,7 +9349,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="196" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A196" s="1">
         <v>3188</v>
       </c>
@@ -9333,7 +9375,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="197" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A197" s="1">
         <v>3189</v>
       </c>
@@ -9355,22 +9397,53 @@
       <c r="G197" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="H197" s="1" t="s">
-        <v>494</v>
-      </c>
+      <c r="H197" s="1"/>
       <c r="I197" s="1" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>1201</v>
+      </c>
+      <c r="J197" s="1" t="s">
+        <v>1202</v>
+      </c>
+      <c r="K197" s="1" t="s">
+        <v>1203</v>
+      </c>
+      <c r="L197" s="1" t="s">
+        <v>1204</v>
+      </c>
+      <c r="M197">
+        <v>4</v>
+      </c>
+      <c r="N197" s="1" t="s">
+        <v>1205</v>
+      </c>
+      <c r="P197">
+        <v>1</v>
+      </c>
+      <c r="Q197">
+        <v>-23.375</v>
+      </c>
+      <c r="R197">
+        <v>147.58750000000001</v>
+      </c>
+      <c r="T197" t="s">
+        <v>1216</v>
+      </c>
+      <c r="U197">
+        <v>4</v>
+      </c>
+      <c r="V197" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="198" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A198" s="1">
         <v>3190</v>
       </c>
       <c r="B198" s="1" t="s">
+        <v>494</v>
+      </c>
+      <c r="C198" s="1" t="s">
         <v>495</v>
-      </c>
-      <c r="C198" s="1" t="s">
-        <v>496</v>
       </c>
       <c r="D198" s="1" t="s">
         <v>77</v>
@@ -9388,15 +9461,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="199" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A199" s="1">
         <v>3191</v>
       </c>
       <c r="B199" s="1" t="s">
+        <v>496</v>
+      </c>
+      <c r="C199" s="1" t="s">
         <v>497</v>
-      </c>
-      <c r="C199" s="1" t="s">
-        <v>498</v>
       </c>
       <c r="D199" s="1" t="s">
         <v>24</v>
@@ -9414,15 +9487,15 @@
         <v>336</v>
       </c>
     </row>
-    <row r="200" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A200" s="1">
         <v>3192</v>
       </c>
       <c r="B200" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="C200" s="1" t="s">
         <v>499</v>
-      </c>
-      <c r="C200" s="1" t="s">
-        <v>500</v>
       </c>
       <c r="D200" s="1" t="s">
         <v>245</v>
@@ -9437,21 +9510,21 @@
         <v>13</v>
       </c>
       <c r="H200" s="1" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="201" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="201" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A201" s="1">
         <v>3193</v>
       </c>
       <c r="B201" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="C201" s="1" t="s">
         <v>502</v>
       </c>
-      <c r="C201" s="1" t="s">
+      <c r="D201" s="1" t="s">
         <v>503</v>
-      </c>
-      <c r="D201" s="1" t="s">
-        <v>504</v>
       </c>
       <c r="E201" s="1">
         <v>2019</v>
@@ -9466,15 +9539,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="202" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A202" s="1">
         <v>3194</v>
       </c>
       <c r="B202" s="1" t="s">
+        <v>504</v>
+      </c>
+      <c r="C202" s="1" t="s">
         <v>505</v>
-      </c>
-      <c r="C202" s="1" t="s">
-        <v>506</v>
       </c>
       <c r="D202" s="1" t="s">
         <v>21</v>
@@ -9492,15 +9565,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="203" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A203" s="1">
         <v>3195</v>
       </c>
       <c r="B203" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="C203" s="1" t="s">
         <v>507</v>
-      </c>
-      <c r="C203" s="1" t="s">
-        <v>508</v>
       </c>
       <c r="D203" s="1" t="s">
         <v>90</v>
@@ -9518,15 +9591,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="204" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A204" s="1">
         <v>3196</v>
       </c>
       <c r="B204" s="1" t="s">
+        <v>508</v>
+      </c>
+      <c r="C204" s="1" t="s">
         <v>509</v>
-      </c>
-      <c r="C204" s="1" t="s">
-        <v>510</v>
       </c>
       <c r="D204" s="1" t="s">
         <v>242</v>
@@ -9538,24 +9611,24 @@
         <v>491</v>
       </c>
       <c r="G204" s="3" t="s">
+        <v>510</v>
+      </c>
+      <c r="H204" s="1" t="s">
         <v>511</v>
       </c>
-      <c r="H204" s="1" t="s">
+      <c r="I204" s="1" t="s">
         <v>512</v>
       </c>
-      <c r="I204" s="1" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="205" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    </row>
+    <row r="205" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A205" s="1">
         <v>3197</v>
       </c>
       <c r="B205" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="C205" s="1" t="s">
         <v>514</v>
-      </c>
-      <c r="C205" s="1" t="s">
-        <v>515</v>
       </c>
       <c r="D205" s="1" t="s">
         <v>40</v>
@@ -9573,15 +9646,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="206" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A206" s="1">
         <v>3198</v>
       </c>
       <c r="B206" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="C206" s="1" t="s">
         <v>516</v>
-      </c>
-      <c r="C206" s="1" t="s">
-        <v>517</v>
       </c>
       <c r="D206" s="1" t="s">
         <v>169</v>
@@ -9599,15 +9672,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="207" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A207" s="1">
         <v>3199</v>
       </c>
       <c r="B207" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="C207" s="1" t="s">
         <v>518</v>
-      </c>
-      <c r="C207" s="1" t="s">
-        <v>519</v>
       </c>
       <c r="D207" s="1" t="s">
         <v>289</v>
@@ -9622,18 +9695,18 @@
         <v>13</v>
       </c>
       <c r="H207" s="1" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="208" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="208" spans="1:22" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A208" s="1">
         <v>3200</v>
       </c>
       <c r="B208" s="1" t="s">
+        <v>520</v>
+      </c>
+      <c r="C208" s="1" t="s">
         <v>521</v>
-      </c>
-      <c r="C208" s="1" t="s">
-        <v>522</v>
       </c>
       <c r="D208" s="1" t="s">
         <v>87</v>
@@ -9656,10 +9729,10 @@
         <v>3201</v>
       </c>
       <c r="B209" s="1" t="s">
+        <v>522</v>
+      </c>
+      <c r="C209" s="1" t="s">
         <v>523</v>
-      </c>
-      <c r="C209" s="1" t="s">
-        <v>524</v>
       </c>
       <c r="D209" s="1" t="s">
         <v>87</v>
@@ -9679,10 +9752,10 @@
         <v>3202</v>
       </c>
       <c r="B210" s="1" t="s">
+        <v>524</v>
+      </c>
+      <c r="C210" s="1" t="s">
         <v>525</v>
-      </c>
-      <c r="C210" s="1" t="s">
-        <v>526</v>
       </c>
       <c r="D210" s="1" t="s">
         <v>40</v>
@@ -9705,10 +9778,10 @@
         <v>3203</v>
       </c>
       <c r="B211" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="C211" s="1" t="s">
         <v>527</v>
-      </c>
-      <c r="C211" s="1" t="s">
-        <v>528</v>
       </c>
       <c r="D211" s="1" t="s">
         <v>322</v>
@@ -9723,7 +9796,7 @@
         <v>13</v>
       </c>
       <c r="H211" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="212" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -9731,10 +9804,10 @@
         <v>3204</v>
       </c>
       <c r="B212" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="C212" s="1" t="s">
         <v>530</v>
-      </c>
-      <c r="C212" s="1" t="s">
-        <v>531</v>
       </c>
       <c r="D212" s="1" t="s">
         <v>67</v>
@@ -9757,10 +9830,10 @@
         <v>3205</v>
       </c>
       <c r="B213" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="C213" s="1" t="s">
         <v>532</v>
-      </c>
-      <c r="C213" s="1" t="s">
-        <v>533</v>
       </c>
       <c r="D213" s="1" t="s">
         <v>67</v>
@@ -9775,7 +9848,7 @@
         <v>13</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="214" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -9783,10 +9856,10 @@
         <v>3206</v>
       </c>
       <c r="B214" s="1" t="s">
+        <v>534</v>
+      </c>
+      <c r="C214" s="1" t="s">
         <v>535</v>
-      </c>
-      <c r="C214" s="1" t="s">
-        <v>536</v>
       </c>
       <c r="D214" s="1" t="s">
         <v>211</v>
@@ -9809,10 +9882,10 @@
         <v>3207</v>
       </c>
       <c r="B215" s="1" t="s">
+        <v>536</v>
+      </c>
+      <c r="C215" s="1" t="s">
         <v>537</v>
-      </c>
-      <c r="C215" s="1" t="s">
-        <v>538</v>
       </c>
       <c r="D215" s="1" t="s">
         <v>31</v>
@@ -9835,10 +9908,10 @@
         <v>3208</v>
       </c>
       <c r="B216" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="C216" s="1" t="s">
         <v>539</v>
-      </c>
-      <c r="C216" s="1" t="s">
-        <v>540</v>
       </c>
       <c r="D216" s="1" t="s">
         <v>242</v>
@@ -9861,10 +9934,10 @@
         <v>3209</v>
       </c>
       <c r="B217" s="1" t="s">
+        <v>540</v>
+      </c>
+      <c r="C217" s="1" t="s">
         <v>541</v>
-      </c>
-      <c r="C217" s="1" t="s">
-        <v>542</v>
       </c>
       <c r="D217" s="1" t="s">
         <v>67</v>
@@ -9879,7 +9952,7 @@
         <v>13</v>
       </c>
       <c r="H217" s="1" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="218" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -9887,10 +9960,10 @@
         <v>3210</v>
       </c>
       <c r="B218" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="C218" s="1" t="s">
         <v>544</v>
-      </c>
-      <c r="C218" s="1" t="s">
-        <v>545</v>
       </c>
       <c r="D218" s="1" t="s">
         <v>176</v>
@@ -9913,10 +9986,10 @@
         <v>3211</v>
       </c>
       <c r="B219" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="C219" s="1" t="s">
         <v>546</v>
-      </c>
-      <c r="C219" s="1" t="s">
-        <v>547</v>
       </c>
       <c r="D219" s="1" t="s">
         <v>333</v>
@@ -9931,7 +10004,7 @@
         <v>13</v>
       </c>
       <c r="H219" s="1" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
     </row>
     <row r="220" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -9939,10 +10012,10 @@
         <v>3212</v>
       </c>
       <c r="B220" s="1" t="s">
+        <v>548</v>
+      </c>
+      <c r="C220" s="1" t="s">
         <v>549</v>
-      </c>
-      <c r="C220" s="1" t="s">
-        <v>550</v>
       </c>
       <c r="D220" s="1" t="s">
         <v>21</v>
@@ -9954,13 +10027,13 @@
         <v>491</v>
       </c>
       <c r="G220" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H220" s="1" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="I220" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="221" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -9968,10 +10041,10 @@
         <v>3213</v>
       </c>
       <c r="B221" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="C221" s="1" t="s">
         <v>552</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>553</v>
       </c>
       <c r="D221" s="1" t="s">
         <v>375</v>
@@ -9986,7 +10059,7 @@
         <v>13</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="222" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -9994,13 +10067,13 @@
         <v>3214</v>
       </c>
       <c r="B222" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="C222" s="1" t="s">
         <v>555</v>
       </c>
-      <c r="C222" s="1" t="s">
+      <c r="D222" s="1" t="s">
         <v>556</v>
-      </c>
-      <c r="D222" s="1" t="s">
-        <v>557</v>
       </c>
       <c r="E222" s="1">
         <v>2014</v>
@@ -10020,10 +10093,10 @@
         <v>3215</v>
       </c>
       <c r="B223" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="C223" s="1" t="s">
         <v>558</v>
-      </c>
-      <c r="C223" s="1" t="s">
-        <v>559</v>
       </c>
       <c r="D223" s="1" t="s">
         <v>242</v>
@@ -10046,10 +10119,10 @@
         <v>3216</v>
       </c>
       <c r="B224" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="C224" s="1" t="s">
         <v>560</v>
-      </c>
-      <c r="C224" s="1" t="s">
-        <v>561</v>
       </c>
       <c r="D224" s="1" t="s">
         <v>234</v>
@@ -10072,10 +10145,10 @@
         <v>3217</v>
       </c>
       <c r="B225" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C225" s="1" t="s">
         <v>562</v>
-      </c>
-      <c r="C225" s="1" t="s">
-        <v>563</v>
       </c>
       <c r="D225" s="1" t="s">
         <v>31</v>
@@ -10090,7 +10163,7 @@
         <v>13</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="226" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10098,13 +10171,13 @@
         <v>3218</v>
       </c>
       <c r="B226" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="C226" s="1" t="s">
         <v>565</v>
       </c>
-      <c r="C226" s="1" t="s">
+      <c r="D226" s="1" t="s">
         <v>566</v>
-      </c>
-      <c r="D226" s="1" t="s">
-        <v>567</v>
       </c>
       <c r="E226" s="1">
         <v>2017</v>
@@ -10116,7 +10189,7 @@
         <v>13</v>
       </c>
       <c r="H226" s="1" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="227" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10124,10 +10197,10 @@
         <v>3219</v>
       </c>
       <c r="B227" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="C227" s="1" t="s">
         <v>569</v>
-      </c>
-      <c r="C227" s="1" t="s">
-        <v>570</v>
       </c>
       <c r="D227" s="1" t="s">
         <v>90</v>
@@ -10136,7 +10209,7 @@
         <v>2012</v>
       </c>
       <c r="F227" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G227" s="1" t="s">
         <v>13</v>
@@ -10150,10 +10223,10 @@
         <v>3220</v>
       </c>
       <c r="B228" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="C228" s="1" t="s">
         <v>572</v>
-      </c>
-      <c r="C228" s="1" t="s">
-        <v>573</v>
       </c>
       <c r="D228" s="1" t="s">
         <v>124</v>
@@ -10162,13 +10235,13 @@
         <v>2014</v>
       </c>
       <c r="F228" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G228" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H228" s="1" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
     </row>
     <row r="229" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10176,10 +10249,10 @@
         <v>3221</v>
       </c>
       <c r="B229" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="C229" s="1" t="s">
         <v>575</v>
-      </c>
-      <c r="C229" s="1" t="s">
-        <v>576</v>
       </c>
       <c r="D229" s="1" t="s">
         <v>87</v>
@@ -10188,13 +10261,13 @@
         <v>2017</v>
       </c>
       <c r="F229" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G229" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H229" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="230" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10202,19 +10275,19 @@
         <v>3222</v>
       </c>
       <c r="B230" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="C230" s="1" t="s">
         <v>578</v>
       </c>
-      <c r="C230" s="1" t="s">
+      <c r="D230" s="1" t="s">
         <v>579</v>
-      </c>
-      <c r="D230" s="1" t="s">
-        <v>580</v>
       </c>
       <c r="E230" s="1">
         <v>2019</v>
       </c>
       <c r="F230" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G230" s="1" t="s">
         <v>13</v>
@@ -10228,10 +10301,10 @@
         <v>3223</v>
       </c>
       <c r="B231" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="C231" s="1" t="s">
         <v>581</v>
-      </c>
-      <c r="C231" s="1" t="s">
-        <v>582</v>
       </c>
       <c r="D231" s="1" t="s">
         <v>201</v>
@@ -10240,7 +10313,7 @@
         <v>2012</v>
       </c>
       <c r="F231" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G231" s="1" t="s">
         <v>13</v>
@@ -10254,10 +10327,10 @@
         <v>3224</v>
       </c>
       <c r="B232" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="C232" s="1" t="s">
         <v>583</v>
-      </c>
-      <c r="C232" s="1" t="s">
-        <v>584</v>
       </c>
       <c r="D232" s="1" t="s">
         <v>31</v>
@@ -10266,7 +10339,7 @@
         <v>2019</v>
       </c>
       <c r="F232" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G232" s="1" t="s">
         <v>13</v>
@@ -10280,10 +10353,10 @@
         <v>3225</v>
       </c>
       <c r="B233" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="C233" s="1" t="s">
         <v>585</v>
-      </c>
-      <c r="C233" s="1" t="s">
-        <v>586</v>
       </c>
       <c r="D233" s="1" t="s">
         <v>201</v>
@@ -10292,7 +10365,7 @@
         <v>2014</v>
       </c>
       <c r="F233" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G233" s="1" t="s">
         <v>13</v>
@@ -10306,10 +10379,10 @@
         <v>3226</v>
       </c>
       <c r="B234" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="C234" s="1" t="s">
         <v>587</v>
-      </c>
-      <c r="C234" s="1" t="s">
-        <v>588</v>
       </c>
       <c r="D234" s="1" t="s">
         <v>51</v>
@@ -10318,16 +10391,16 @@
         <v>2016</v>
       </c>
       <c r="F234" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G234" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H234" s="1" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I234" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="235" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10335,25 +10408,25 @@
         <v>3227</v>
       </c>
       <c r="B235" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="C235" s="1" t="s">
         <v>590</v>
       </c>
-      <c r="C235" s="1" t="s">
+      <c r="D235" s="1" t="s">
         <v>591</v>
-      </c>
-      <c r="D235" s="1" t="s">
-        <v>592</v>
       </c>
       <c r="E235" s="1">
         <v>2019</v>
       </c>
       <c r="F235" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G235" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="236" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10361,10 +10434,10 @@
         <v>3228</v>
       </c>
       <c r="B236" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="C236" s="1" t="s">
         <v>594</v>
-      </c>
-      <c r="C236" s="1" t="s">
-        <v>595</v>
       </c>
       <c r="D236" s="1" t="s">
         <v>315</v>
@@ -10373,7 +10446,7 @@
         <v>2002</v>
       </c>
       <c r="F236" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G236" s="1" t="s">
         <v>13</v>
@@ -10387,10 +10460,10 @@
         <v>3229</v>
       </c>
       <c r="B237" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="C237" s="1" t="s">
         <v>596</v>
-      </c>
-      <c r="C237" s="1" t="s">
-        <v>597</v>
       </c>
       <c r="D237" s="1" t="s">
         <v>31</v>
@@ -10399,13 +10472,13 @@
         <v>2019</v>
       </c>
       <c r="F237" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G237" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H237" s="1" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="238" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10413,25 +10486,25 @@
         <v>3230</v>
       </c>
       <c r="B238" s="1" t="s">
+        <v>598</v>
+      </c>
+      <c r="C238" s="1" t="s">
         <v>599</v>
       </c>
-      <c r="C238" s="1" t="s">
+      <c r="D238" s="1" t="s">
         <v>600</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>601</v>
       </c>
       <c r="E238" s="1">
         <v>2019</v>
       </c>
       <c r="F238" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G238" s="1" t="s">
         <v>112</v>
       </c>
       <c r="I238" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="239" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10439,10 +10512,10 @@
         <v>3231</v>
       </c>
       <c r="B239" s="1" t="s">
+        <v>602</v>
+      </c>
+      <c r="C239" s="1" t="s">
         <v>603</v>
-      </c>
-      <c r="C239" s="1" t="s">
-        <v>604</v>
       </c>
       <c r="D239" s="1" t="s">
         <v>40</v>
@@ -10451,7 +10524,7 @@
         <v>2019</v>
       </c>
       <c r="F239" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G239" s="1" t="s">
         <v>13</v>
@@ -10465,10 +10538,10 @@
         <v>3232</v>
       </c>
       <c r="B240" s="1" t="s">
+        <v>604</v>
+      </c>
+      <c r="C240" s="1" t="s">
         <v>605</v>
-      </c>
-      <c r="C240" s="1" t="s">
-        <v>606</v>
       </c>
       <c r="D240" s="1" t="s">
         <v>328</v>
@@ -10477,13 +10550,13 @@
         <v>2019</v>
       </c>
       <c r="F240" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G240" s="1" t="s">
         <v>112</v>
       </c>
       <c r="I240" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="241" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10491,10 +10564,10 @@
         <v>3233</v>
       </c>
       <c r="B241" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="C241" s="1" t="s">
         <v>607</v>
-      </c>
-      <c r="C241" s="1" t="s">
-        <v>608</v>
       </c>
       <c r="D241" s="1" t="s">
         <v>21</v>
@@ -10503,13 +10576,13 @@
         <v>1995</v>
       </c>
       <c r="F241" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G241" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="242" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10517,19 +10590,19 @@
         <v>3234</v>
       </c>
       <c r="B242" s="1" t="s">
+        <v>609</v>
+      </c>
+      <c r="C242" s="1" t="s">
         <v>610</v>
       </c>
-      <c r="C242" s="1" t="s">
+      <c r="D242" s="1" t="s">
         <v>611</v>
-      </c>
-      <c r="D242" s="1" t="s">
-        <v>612</v>
       </c>
       <c r="E242" s="1">
         <v>2019</v>
       </c>
       <c r="F242" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G242" s="1" t="s">
         <v>13</v>
@@ -10543,10 +10616,10 @@
         <v>3235</v>
       </c>
       <c r="B243" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="C243" s="1" t="s">
         <v>613</v>
-      </c>
-      <c r="C243" s="1" t="s">
-        <v>614</v>
       </c>
       <c r="D243" s="1" t="s">
         <v>87</v>
@@ -10555,13 +10628,13 @@
         <v>2018</v>
       </c>
       <c r="F243" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G243" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H243" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="244" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10569,10 +10642,10 @@
         <v>3236</v>
       </c>
       <c r="B244" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="C244" s="1" t="s">
         <v>616</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>617</v>
       </c>
       <c r="D244" s="1" t="s">
         <v>40</v>
@@ -10581,13 +10654,13 @@
         <v>2018</v>
       </c>
       <c r="F244" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G244" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H244" s="1" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
     </row>
     <row r="245" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10595,10 +10668,10 @@
         <v>3237</v>
       </c>
       <c r="B245" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="C245" s="1" t="s">
         <v>618</v>
-      </c>
-      <c r="C245" s="1" t="s">
-        <v>619</v>
       </c>
       <c r="D245" s="1" t="s">
         <v>211</v>
@@ -10607,13 +10680,13 @@
         <v>2017</v>
       </c>
       <c r="F245" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G245" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H245" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="246" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10621,10 +10694,10 @@
         <v>3238</v>
       </c>
       <c r="B246" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="C246" s="1" t="s">
         <v>620</v>
-      </c>
-      <c r="C246" s="1" t="s">
-        <v>621</v>
       </c>
       <c r="D246" s="1" t="s">
         <v>211</v>
@@ -10633,13 +10706,13 @@
         <v>2019</v>
       </c>
       <c r="F246" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G246" s="1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="H246" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="247" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10647,10 +10720,10 @@
         <v>3239</v>
       </c>
       <c r="B247" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="C247" s="1" t="s">
         <v>623</v>
-      </c>
-      <c r="C247" s="1" t="s">
-        <v>624</v>
       </c>
       <c r="D247" s="1" t="s">
         <v>156</v>
@@ -10659,13 +10732,13 @@
         <v>2018</v>
       </c>
       <c r="F247" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G247" s="1" t="s">
         <v>112</v>
       </c>
       <c r="I247" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="248" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10673,10 +10746,10 @@
         <v>3240</v>
       </c>
       <c r="B248" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="C248" s="1" t="s">
         <v>625</v>
-      </c>
-      <c r="C248" s="1" t="s">
-        <v>626</v>
       </c>
       <c r="D248" s="1" t="s">
         <v>51</v>
@@ -10685,13 +10758,13 @@
         <v>2003</v>
       </c>
       <c r="F248" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G248" s="1" t="s">
         <v>112</v>
       </c>
       <c r="I248" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="249" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10699,28 +10772,28 @@
         <v>3241</v>
       </c>
       <c r="B249" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="C249" s="1" t="s">
         <v>627</v>
       </c>
-      <c r="C249" s="1" t="s">
+      <c r="D249" s="1" t="s">
         <v>628</v>
-      </c>
-      <c r="D249" s="1" t="s">
-        <v>629</v>
       </c>
       <c r="E249" s="1">
         <v>2019</v>
       </c>
       <c r="F249" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G249" s="1" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H249" s="1" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I249" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="250" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10728,10 +10801,10 @@
         <v>3242</v>
       </c>
       <c r="B250" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="C250" s="1" t="s">
         <v>631</v>
-      </c>
-      <c r="C250" s="1" t="s">
-        <v>632</v>
       </c>
       <c r="D250" s="1" t="s">
         <v>87</v>
@@ -10740,7 +10813,7 @@
         <v>2019</v>
       </c>
       <c r="F250" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G250" s="1" t="s">
         <v>13</v>
@@ -10754,10 +10827,10 @@
         <v>3243</v>
       </c>
       <c r="B251" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="C251" s="1" t="s">
         <v>633</v>
-      </c>
-      <c r="C251" s="1" t="s">
-        <v>634</v>
       </c>
       <c r="D251" s="1" t="s">
         <v>237</v>
@@ -10766,7 +10839,7 @@
         <v>2011</v>
       </c>
       <c r="F251" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G251" s="1" t="s">
         <v>13</v>
@@ -10780,10 +10853,10 @@
         <v>3244</v>
       </c>
       <c r="B252" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="C252" s="1" t="s">
         <v>635</v>
-      </c>
-      <c r="C252" s="1" t="s">
-        <v>636</v>
       </c>
       <c r="D252" s="1" t="s">
         <v>67</v>
@@ -10792,13 +10865,13 @@
         <v>1991</v>
       </c>
       <c r="F252" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G252" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="253" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10806,10 +10879,10 @@
         <v>3245</v>
       </c>
       <c r="B253" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="C253" s="1" t="s">
         <v>638</v>
-      </c>
-      <c r="C253" s="1" t="s">
-        <v>639</v>
       </c>
       <c r="D253" s="1" t="s">
         <v>40</v>
@@ -10818,7 +10891,7 @@
         <v>2006</v>
       </c>
       <c r="F253" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G253" s="1" t="s">
         <v>13</v>
@@ -10832,10 +10905,10 @@
         <v>3246</v>
       </c>
       <c r="B254" s="1" t="s">
+        <v>639</v>
+      </c>
+      <c r="C254" s="1" t="s">
         <v>640</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>641</v>
       </c>
       <c r="D254" s="1" t="s">
         <v>274</v>
@@ -10844,13 +10917,13 @@
         <v>2011</v>
       </c>
       <c r="F254" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G254" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H254" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="255" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10858,10 +10931,10 @@
         <v>3247</v>
       </c>
       <c r="B255" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="C255" s="1" t="s">
         <v>643</v>
-      </c>
-      <c r="C255" s="1" t="s">
-        <v>644</v>
       </c>
       <c r="D255" s="1" t="s">
         <v>51</v>
@@ -10870,13 +10943,13 @@
         <v>2009</v>
       </c>
       <c r="F255" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G255" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="256" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -10884,10 +10957,10 @@
         <v>3248</v>
       </c>
       <c r="B256" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="C256" s="1" t="s">
         <v>645</v>
-      </c>
-      <c r="C256" s="1" t="s">
-        <v>646</v>
       </c>
       <c r="D256" s="1" t="s">
         <v>169</v>
@@ -10896,13 +10969,13 @@
         <v>2019</v>
       </c>
       <c r="F256" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G256" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H256" s="1" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="257" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -10910,25 +10983,25 @@
         <v>3249</v>
       </c>
       <c r="B257" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="C257" s="1" t="s">
         <v>647</v>
       </c>
-      <c r="C257" s="1" t="s">
+      <c r="D257" s="1" t="s">
         <v>648</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>649</v>
       </c>
       <c r="E257" s="1">
         <v>2019</v>
       </c>
       <c r="F257" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G257" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H257" s="1" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -10936,10 +11009,10 @@
         <v>3250</v>
       </c>
       <c r="B258" s="1" t="s">
+        <v>649</v>
+      </c>
+      <c r="C258" s="1" t="s">
         <v>650</v>
-      </c>
-      <c r="C258" s="1" t="s">
-        <v>651</v>
       </c>
       <c r="D258" s="1" t="s">
         <v>315</v>
@@ -10948,7 +11021,7 @@
         <v>2013</v>
       </c>
       <c r="F258" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G258" s="1" t="s">
         <v>13</v>
@@ -10962,10 +11035,10 @@
         <v>3251</v>
       </c>
       <c r="B259" s="1" t="s">
+        <v>651</v>
+      </c>
+      <c r="C259" s="1" t="s">
         <v>652</v>
-      </c>
-      <c r="C259" s="1" t="s">
-        <v>653</v>
       </c>
       <c r="D259" s="1" t="s">
         <v>40</v>
@@ -10974,13 +11047,13 @@
         <v>2019</v>
       </c>
       <c r="F259" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G259" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H259" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="260" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -10988,10 +11061,10 @@
         <v>3252</v>
       </c>
       <c r="B260" s="1" t="s">
+        <v>654</v>
+      </c>
+      <c r="C260" s="1" t="s">
         <v>655</v>
-      </c>
-      <c r="C260" s="1" t="s">
-        <v>656</v>
       </c>
       <c r="D260" s="1" t="s">
         <v>196</v>
@@ -11000,7 +11073,7 @@
         <v>2018</v>
       </c>
       <c r="F260" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G260" s="1" t="s">
         <v>13</v>
@@ -11014,10 +11087,10 @@
         <v>3253</v>
       </c>
       <c r="B261" s="1" t="s">
+        <v>656</v>
+      </c>
+      <c r="C261" s="1" t="s">
         <v>657</v>
-      </c>
-      <c r="C261" s="1" t="s">
-        <v>658</v>
       </c>
       <c r="D261" s="1" t="s">
         <v>218</v>
@@ -11026,13 +11099,13 @@
         <v>2015</v>
       </c>
       <c r="F261" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G261" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="262" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11040,25 +11113,25 @@
         <v>3254</v>
       </c>
       <c r="B262" s="1" t="s">
+        <v>658</v>
+      </c>
+      <c r="C262" s="1" t="s">
         <v>659</v>
       </c>
-      <c r="C262" s="1" t="s">
+      <c r="D262" s="1" t="s">
         <v>660</v>
-      </c>
-      <c r="D262" s="1" t="s">
-        <v>661</v>
       </c>
       <c r="E262" s="1">
         <v>2014</v>
       </c>
       <c r="F262" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G262" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H262" s="1" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="263" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11066,10 +11139,10 @@
         <v>3255</v>
       </c>
       <c r="B263" s="1" t="s">
+        <v>662</v>
+      </c>
+      <c r="C263" s="1" t="s">
         <v>663</v>
-      </c>
-      <c r="C263" s="1" t="s">
-        <v>664</v>
       </c>
       <c r="D263" s="1" t="s">
         <v>40</v>
@@ -11078,13 +11151,13 @@
         <v>2013</v>
       </c>
       <c r="F263" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G263" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11092,10 +11165,10 @@
         <v>3256</v>
       </c>
       <c r="B264" s="1" t="s">
+        <v>665</v>
+      </c>
+      <c r="C264" s="1" t="s">
         <v>666</v>
-      </c>
-      <c r="C264" s="1" t="s">
-        <v>667</v>
       </c>
       <c r="D264" s="1" t="s">
         <v>31</v>
@@ -11104,13 +11177,13 @@
         <v>2016</v>
       </c>
       <c r="F264" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G264" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H264" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11118,10 +11191,10 @@
         <v>3257</v>
       </c>
       <c r="B265" s="1" t="s">
+        <v>667</v>
+      </c>
+      <c r="C265" s="1" t="s">
         <v>668</v>
-      </c>
-      <c r="C265" s="1" t="s">
-        <v>669</v>
       </c>
       <c r="D265" s="1" t="s">
         <v>328</v>
@@ -11130,13 +11203,13 @@
         <v>2017</v>
       </c>
       <c r="F265" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G265" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11144,10 +11217,10 @@
         <v>3258</v>
       </c>
       <c r="B266" s="1" t="s">
+        <v>670</v>
+      </c>
+      <c r="C266" s="1" t="s">
         <v>671</v>
-      </c>
-      <c r="C266" s="1" t="s">
-        <v>672</v>
       </c>
       <c r="D266" s="1" t="s">
         <v>11</v>
@@ -11156,13 +11229,13 @@
         <v>2017</v>
       </c>
       <c r="F266" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G266" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H266" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="267" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11170,25 +11243,25 @@
         <v>3259</v>
       </c>
       <c r="B267" s="1" t="s">
+        <v>672</v>
+      </c>
+      <c r="C267" s="1" t="s">
         <v>673</v>
       </c>
-      <c r="C267" s="1" t="s">
+      <c r="D267" s="1" t="s">
         <v>674</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>675</v>
       </c>
       <c r="E267" s="1">
         <v>1997</v>
       </c>
       <c r="F267" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G267" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="268" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11196,25 +11269,25 @@
         <v>3260</v>
       </c>
       <c r="B268" s="1" t="s">
+        <v>675</v>
+      </c>
+      <c r="C268" s="1" t="s">
         <v>676</v>
       </c>
-      <c r="C268" s="1" t="s">
+      <c r="D268" s="1" t="s">
         <v>677</v>
-      </c>
-      <c r="D268" s="1" t="s">
-        <v>678</v>
       </c>
       <c r="E268" s="1">
         <v>2015</v>
       </c>
       <c r="F268" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G268" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="269" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11222,10 +11295,10 @@
         <v>3261</v>
       </c>
       <c r="B269" s="1" t="s">
+        <v>679</v>
+      </c>
+      <c r="C269" s="1" t="s">
         <v>680</v>
-      </c>
-      <c r="C269" s="1" t="s">
-        <v>681</v>
       </c>
       <c r="D269" s="1" t="s">
         <v>328</v>
@@ -11234,13 +11307,13 @@
         <v>2016</v>
       </c>
       <c r="F269" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G269" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H269" s="1" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="270" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11248,10 +11321,10 @@
         <v>3262</v>
       </c>
       <c r="B270" s="1" t="s">
+        <v>682</v>
+      </c>
+      <c r="C270" s="1" t="s">
         <v>683</v>
-      </c>
-      <c r="C270" s="1" t="s">
-        <v>684</v>
       </c>
       <c r="D270" s="1" t="s">
         <v>58</v>
@@ -11260,13 +11333,13 @@
         <v>2006</v>
       </c>
       <c r="F270" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G270" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H270" s="1" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11274,10 +11347,10 @@
         <v>3263</v>
       </c>
       <c r="B271" s="1" t="s">
+        <v>685</v>
+      </c>
+      <c r="C271" s="1" t="s">
         <v>686</v>
-      </c>
-      <c r="C271" s="1" t="s">
-        <v>687</v>
       </c>
       <c r="D271" s="1" t="s">
         <v>54</v>
@@ -11286,13 +11359,13 @@
         <v>2005</v>
       </c>
       <c r="F271" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G271" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H271" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11300,10 +11373,10 @@
         <v>3264</v>
       </c>
       <c r="B272" s="1" t="s">
+        <v>687</v>
+      </c>
+      <c r="C272" s="1" t="s">
         <v>688</v>
-      </c>
-      <c r="C272" s="1" t="s">
-        <v>689</v>
       </c>
       <c r="D272" s="1" t="s">
         <v>156</v>
@@ -11312,13 +11385,13 @@
         <v>2016</v>
       </c>
       <c r="F272" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G272" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H272" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="273" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -11326,10 +11399,10 @@
         <v>3265</v>
       </c>
       <c r="B273" s="1" t="s">
+        <v>689</v>
+      </c>
+      <c r="C273" s="1" t="s">
         <v>690</v>
-      </c>
-      <c r="C273" s="1" t="s">
-        <v>691</v>
       </c>
       <c r="D273" s="1" t="s">
         <v>87</v>
@@ -11338,13 +11411,13 @@
         <v>2010</v>
       </c>
       <c r="F273" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G273" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="274" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -11352,10 +11425,10 @@
         <v>3266</v>
       </c>
       <c r="B274" s="1" t="s">
+        <v>691</v>
+      </c>
+      <c r="C274" s="1" t="s">
         <v>692</v>
-      </c>
-      <c r="C274" s="1" t="s">
-        <v>693</v>
       </c>
       <c r="D274" s="1" t="s">
         <v>24</v>
@@ -11364,7 +11437,7 @@
         <v>2016</v>
       </c>
       <c r="F274" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G274" s="1" t="s">
         <v>13</v>
@@ -11378,25 +11451,25 @@
         <v>3267</v>
       </c>
       <c r="B275" s="1" t="s">
+        <v>693</v>
+      </c>
+      <c r="C275" s="1" t="s">
         <v>694</v>
       </c>
-      <c r="C275" s="1" t="s">
+      <c r="D275" s="1" t="s">
         <v>695</v>
-      </c>
-      <c r="D275" s="1" t="s">
-        <v>696</v>
       </c>
       <c r="E275" s="1">
         <v>2011</v>
       </c>
       <c r="F275" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G275" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H275" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="276" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -11404,10 +11477,10 @@
         <v>3268</v>
       </c>
       <c r="B276" s="1" t="s">
+        <v>696</v>
+      </c>
+      <c r="C276" s="1" t="s">
         <v>697</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>698</v>
       </c>
       <c r="D276" s="1" t="s">
         <v>54</v>
@@ -11416,13 +11489,13 @@
         <v>2019</v>
       </c>
       <c r="F276" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G276" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H276" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="277" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -11430,10 +11503,10 @@
         <v>3269</v>
       </c>
       <c r="B277" s="1" t="s">
+        <v>698</v>
+      </c>
+      <c r="C277" s="1" t="s">
         <v>699</v>
-      </c>
-      <c r="C277" s="1" t="s">
-        <v>700</v>
       </c>
       <c r="D277" s="1" t="s">
         <v>156</v>
@@ -11442,13 +11515,13 @@
         <v>2019</v>
       </c>
       <c r="F277" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G277" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="278" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -11456,10 +11529,10 @@
         <v>3270</v>
       </c>
       <c r="B278" s="1" t="s">
+        <v>700</v>
+      </c>
+      <c r="C278" s="1" t="s">
         <v>701</v>
-      </c>
-      <c r="C278" s="1" t="s">
-        <v>702</v>
       </c>
       <c r="D278" s="1" t="s">
         <v>37</v>
@@ -11468,13 +11541,13 @@
         <v>2019</v>
       </c>
       <c r="F278" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G278" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="279" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -11482,10 +11555,10 @@
         <v>3271</v>
       </c>
       <c r="B279" s="1" t="s">
+        <v>703</v>
+      </c>
+      <c r="C279" s="1" t="s">
         <v>704</v>
-      </c>
-      <c r="C279" s="1" t="s">
-        <v>705</v>
       </c>
       <c r="D279" s="1" t="s">
         <v>67</v>
@@ -11494,7 +11567,7 @@
         <v>1999</v>
       </c>
       <c r="F279" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G279" s="1" t="s">
         <v>13</v>
@@ -11508,10 +11581,10 @@
         <v>3272</v>
       </c>
       <c r="B280" s="1" t="s">
+        <v>705</v>
+      </c>
+      <c r="C280" s="1" t="s">
         <v>706</v>
-      </c>
-      <c r="C280" s="1" t="s">
-        <v>707</v>
       </c>
       <c r="D280" s="1" t="s">
         <v>271</v>
@@ -11520,13 +11593,13 @@
         <v>2018</v>
       </c>
       <c r="F280" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G280" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H280" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="281" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -11534,10 +11607,10 @@
         <v>3273</v>
       </c>
       <c r="B281" s="1" t="s">
+        <v>707</v>
+      </c>
+      <c r="C281" s="1" t="s">
         <v>708</v>
-      </c>
-      <c r="C281" s="1" t="s">
-        <v>709</v>
       </c>
       <c r="D281" s="1" t="s">
         <v>31</v>
@@ -11546,13 +11619,13 @@
         <v>2018</v>
       </c>
       <c r="F281" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G281" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="282" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -11560,25 +11633,25 @@
         <v>3274</v>
       </c>
       <c r="B282" s="1" t="s">
+        <v>709</v>
+      </c>
+      <c r="C282" s="1" t="s">
         <v>710</v>
       </c>
-      <c r="C282" s="1" t="s">
-        <v>711</v>
-      </c>
       <c r="D282" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E282" s="1">
         <v>2010</v>
       </c>
       <c r="F282" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G282" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H282" s="1" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="283" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -11586,10 +11659,10 @@
         <v>3275</v>
       </c>
       <c r="B283" s="1" t="s">
+        <v>711</v>
+      </c>
+      <c r="C283" s="1" t="s">
         <v>712</v>
-      </c>
-      <c r="C283" s="1" t="s">
-        <v>713</v>
       </c>
       <c r="D283" s="1" t="s">
         <v>40</v>
@@ -11598,16 +11671,16 @@
         <v>2019</v>
       </c>
       <c r="F283" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G283" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H283" s="1" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="I283" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="284" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -11615,10 +11688,10 @@
         <v>3276</v>
       </c>
       <c r="B284" s="1" t="s">
+        <v>714</v>
+      </c>
+      <c r="C284" s="1" t="s">
         <v>715</v>
-      </c>
-      <c r="C284" s="1" t="s">
-        <v>716</v>
       </c>
       <c r="D284" s="1" t="s">
         <v>51</v>
@@ -11627,13 +11700,13 @@
         <v>2019</v>
       </c>
       <c r="F284" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G284" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H284" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="285" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -11641,10 +11714,10 @@
         <v>3277</v>
       </c>
       <c r="B285" s="1" t="s">
+        <v>716</v>
+      </c>
+      <c r="C285" s="1" t="s">
         <v>717</v>
-      </c>
-      <c r="C285" s="1" t="s">
-        <v>718</v>
       </c>
       <c r="D285" s="1" t="s">
         <v>51</v>
@@ -11653,13 +11726,13 @@
         <v>2011</v>
       </c>
       <c r="F285" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G285" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H285" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="286" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -11667,10 +11740,10 @@
         <v>3278</v>
       </c>
       <c r="B286" s="1" t="s">
+        <v>718</v>
+      </c>
+      <c r="C286" s="1" t="s">
         <v>719</v>
-      </c>
-      <c r="C286" s="1" t="s">
-        <v>720</v>
       </c>
       <c r="D286" s="1" t="s">
         <v>169</v>
@@ -11679,13 +11752,13 @@
         <v>2019</v>
       </c>
       <c r="F286" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G286" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H286" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="287" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -11693,10 +11766,10 @@
         <v>3279</v>
       </c>
       <c r="B287" s="1" t="s">
+        <v>720</v>
+      </c>
+      <c r="C287" s="1" t="s">
         <v>721</v>
-      </c>
-      <c r="C287" s="1" t="s">
-        <v>722</v>
       </c>
       <c r="D287" s="1" t="s">
         <v>37</v>
@@ -11705,13 +11778,13 @@
         <v>2018</v>
       </c>
       <c r="F287" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G287" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H287" s="1" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="288" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -11719,10 +11792,10 @@
         <v>3280</v>
       </c>
       <c r="B288" s="1" t="s">
+        <v>723</v>
+      </c>
+      <c r="C288" s="1" t="s">
         <v>724</v>
-      </c>
-      <c r="C288" s="1" t="s">
-        <v>725</v>
       </c>
       <c r="D288" s="1" t="s">
         <v>242</v>
@@ -11731,13 +11804,13 @@
         <v>2011</v>
       </c>
       <c r="F288" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G288" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H288" s="1" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="289" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11745,10 +11818,10 @@
         <v>3281</v>
       </c>
       <c r="B289" s="1" t="s">
+        <v>725</v>
+      </c>
+      <c r="C289" s="1" t="s">
         <v>726</v>
-      </c>
-      <c r="C289" s="1" t="s">
-        <v>727</v>
       </c>
       <c r="D289" s="1" t="s">
         <v>176</v>
@@ -11757,13 +11830,13 @@
         <v>2018</v>
       </c>
       <c r="F289" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G289" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H289" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="290" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11771,10 +11844,10 @@
         <v>3282</v>
       </c>
       <c r="B290" s="1" t="s">
+        <v>727</v>
+      </c>
+      <c r="C290" s="1" t="s">
         <v>728</v>
-      </c>
-      <c r="C290" s="1" t="s">
-        <v>729</v>
       </c>
       <c r="D290" s="1" t="s">
         <v>176</v>
@@ -11783,13 +11856,13 @@
         <v>2018</v>
       </c>
       <c r="F290" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G290" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="291" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11797,10 +11870,10 @@
         <v>3283</v>
       </c>
       <c r="B291" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="C291" s="1" t="s">
         <v>730</v>
-      </c>
-      <c r="C291" s="1" t="s">
-        <v>731</v>
       </c>
       <c r="D291" s="1" t="s">
         <v>169</v>
@@ -11809,13 +11882,13 @@
         <v>2015</v>
       </c>
       <c r="F291" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G291" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H291" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="292" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11823,10 +11896,10 @@
         <v>3284</v>
       </c>
       <c r="B292" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="C292" s="1" t="s">
         <v>732</v>
-      </c>
-      <c r="C292" s="1" t="s">
-        <v>733</v>
       </c>
       <c r="D292" s="1" t="s">
         <v>31</v>
@@ -11835,13 +11908,13 @@
         <v>2019</v>
       </c>
       <c r="F292" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G292" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="293" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11849,10 +11922,10 @@
         <v>3285</v>
       </c>
       <c r="B293" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="C293" s="1" t="s">
         <v>735</v>
-      </c>
-      <c r="C293" s="1" t="s">
-        <v>736</v>
       </c>
       <c r="D293" s="1" t="s">
         <v>31</v>
@@ -11861,13 +11934,13 @@
         <v>2011</v>
       </c>
       <c r="F293" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G293" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H293" s="1" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="294" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11875,10 +11948,10 @@
         <v>3286</v>
       </c>
       <c r="B294" s="1" t="s">
+        <v>737</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>738</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>739</v>
       </c>
       <c r="D294" s="1" t="s">
         <v>51</v>
@@ -11887,13 +11960,13 @@
         <v>2019</v>
       </c>
       <c r="F294" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G294" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H294" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="295" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11901,10 +11974,10 @@
         <v>3287</v>
       </c>
       <c r="B295" s="1" t="s">
+        <v>739</v>
+      </c>
+      <c r="C295" s="1" t="s">
         <v>740</v>
-      </c>
-      <c r="C295" s="1" t="s">
-        <v>741</v>
       </c>
       <c r="D295" s="1" t="s">
         <v>17</v>
@@ -11913,13 +11986,13 @@
         <v>2001</v>
       </c>
       <c r="F295" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G295" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H295" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="296" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -11927,10 +12000,10 @@
         <v>3288</v>
       </c>
       <c r="B296" s="1" t="s">
+        <v>741</v>
+      </c>
+      <c r="C296" s="1" t="s">
         <v>742</v>
-      </c>
-      <c r="C296" s="1" t="s">
-        <v>743</v>
       </c>
       <c r="D296" s="1" t="s">
         <v>201</v>
@@ -11939,7 +12012,7 @@
         <v>2005</v>
       </c>
       <c r="F296" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G296" s="1" t="s">
         <v>13</v>
@@ -11953,10 +12026,10 @@
         <v>3289</v>
       </c>
       <c r="B297" s="1" t="s">
+        <v>743</v>
+      </c>
+      <c r="C297" s="1" t="s">
         <v>744</v>
-      </c>
-      <c r="C297" s="1" t="s">
-        <v>745</v>
       </c>
       <c r="D297" s="1" t="s">
         <v>87</v>
@@ -11965,7 +12038,7 @@
         <v>2019</v>
       </c>
       <c r="F297" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G297" s="1" t="s">
         <v>13</v>
@@ -11979,10 +12052,10 @@
         <v>3290</v>
       </c>
       <c r="B298" s="1" t="s">
+        <v>745</v>
+      </c>
+      <c r="C298" s="1" t="s">
         <v>746</v>
-      </c>
-      <c r="C298" s="1" t="s">
-        <v>747</v>
       </c>
       <c r="D298" s="1" t="s">
         <v>375</v>
@@ -11991,13 +12064,13 @@
         <v>2012</v>
       </c>
       <c r="F298" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G298" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H298" s="1" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="299" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12005,10 +12078,10 @@
         <v>3291</v>
       </c>
       <c r="B299" s="1" t="s">
+        <v>748</v>
+      </c>
+      <c r="C299" s="1" t="s">
         <v>749</v>
-      </c>
-      <c r="C299" s="1" t="s">
-        <v>750</v>
       </c>
       <c r="D299" s="1" t="s">
         <v>234</v>
@@ -12017,13 +12090,13 @@
         <v>2005</v>
       </c>
       <c r="F299" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G299" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="300" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12031,10 +12104,10 @@
         <v>3292</v>
       </c>
       <c r="B300" s="1" t="s">
+        <v>750</v>
+      </c>
+      <c r="C300" s="1" t="s">
         <v>751</v>
-      </c>
-      <c r="C300" s="1" t="s">
-        <v>752</v>
       </c>
       <c r="D300" s="1" t="s">
         <v>40</v>
@@ -12043,13 +12116,13 @@
         <v>2017</v>
       </c>
       <c r="F300" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G300" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H300" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="301" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12057,10 +12130,10 @@
         <v>3293</v>
       </c>
       <c r="B301" s="1" t="s">
+        <v>752</v>
+      </c>
+      <c r="C301" s="1" t="s">
         <v>753</v>
-      </c>
-      <c r="C301" s="1" t="s">
-        <v>754</v>
       </c>
       <c r="D301" s="1" t="s">
         <v>234</v>
@@ -12069,7 +12142,7 @@
         <v>2019</v>
       </c>
       <c r="F301" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G301" s="1" t="s">
         <v>13</v>
@@ -12083,10 +12156,10 @@
         <v>3294</v>
       </c>
       <c r="B302" s="1" t="s">
+        <v>754</v>
+      </c>
+      <c r="C302" s="1" t="s">
         <v>755</v>
-      </c>
-      <c r="C302" s="1" t="s">
-        <v>756</v>
       </c>
       <c r="D302" s="1" t="s">
         <v>40</v>
@@ -12095,13 +12168,13 @@
         <v>2016</v>
       </c>
       <c r="F302" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G302" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H302" s="1" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="303" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12109,10 +12182,10 @@
         <v>3295</v>
       </c>
       <c r="B303" s="1" t="s">
+        <v>757</v>
+      </c>
+      <c r="C303" s="1" t="s">
         <v>758</v>
-      </c>
-      <c r="C303" s="1" t="s">
-        <v>759</v>
       </c>
       <c r="D303" s="1" t="s">
         <v>51</v>
@@ -12121,13 +12194,13 @@
         <v>2011</v>
       </c>
       <c r="F303" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G303" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="304" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12135,10 +12208,10 @@
         <v>3296</v>
       </c>
       <c r="B304" s="1" t="s">
+        <v>759</v>
+      </c>
+      <c r="C304" s="1" t="s">
         <v>760</v>
-      </c>
-      <c r="C304" s="1" t="s">
-        <v>761</v>
       </c>
       <c r="D304" s="1" t="s">
         <v>90</v>
@@ -12147,13 +12220,13 @@
         <v>2005</v>
       </c>
       <c r="F304" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G304" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="305" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12161,10 +12234,10 @@
         <v>3297</v>
       </c>
       <c r="B305" s="1" t="s">
+        <v>761</v>
+      </c>
+      <c r="C305" s="1" t="s">
         <v>762</v>
-      </c>
-      <c r="C305" s="1" t="s">
-        <v>763</v>
       </c>
       <c r="D305" s="1" t="s">
         <v>372</v>
@@ -12173,13 +12246,13 @@
         <v>1999</v>
       </c>
       <c r="F305" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G305" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="306" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12187,10 +12260,10 @@
         <v>3298</v>
       </c>
       <c r="B306" s="1" t="s">
+        <v>763</v>
+      </c>
+      <c r="C306" s="1" t="s">
         <v>764</v>
-      </c>
-      <c r="C306" s="1" t="s">
-        <v>765</v>
       </c>
       <c r="D306" s="1" t="s">
         <v>51</v>
@@ -12199,13 +12272,13 @@
         <v>1994</v>
       </c>
       <c r="F306" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G306" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H306" s="1" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="307" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12213,10 +12286,10 @@
         <v>3299</v>
       </c>
       <c r="B307" s="1" t="s">
+        <v>766</v>
+      </c>
+      <c r="C307" s="1" t="s">
         <v>767</v>
-      </c>
-      <c r="C307" s="1" t="s">
-        <v>768</v>
       </c>
       <c r="D307" s="1" t="s">
         <v>51</v>
@@ -12225,13 +12298,13 @@
         <v>2019</v>
       </c>
       <c r="F307" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G307" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H307" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="308" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12239,10 +12312,10 @@
         <v>3300</v>
       </c>
       <c r="B308" s="1" t="s">
+        <v>769</v>
+      </c>
+      <c r="C308" s="1" t="s">
         <v>770</v>
-      </c>
-      <c r="C308" s="1" t="s">
-        <v>771</v>
       </c>
       <c r="D308" s="1" t="s">
         <v>328</v>
@@ -12251,13 +12324,13 @@
         <v>2016</v>
       </c>
       <c r="F308" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G308" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H308" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="309" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12265,10 +12338,10 @@
         <v>3301</v>
       </c>
       <c r="B309" s="1" t="s">
+        <v>771</v>
+      </c>
+      <c r="C309" s="1" t="s">
         <v>772</v>
-      </c>
-      <c r="C309" s="1" t="s">
-        <v>773</v>
       </c>
       <c r="D309" s="1" t="s">
         <v>54</v>
@@ -12277,13 +12350,13 @@
         <v>2004</v>
       </c>
       <c r="F309" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G309" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="310" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12291,10 +12364,10 @@
         <v>3302</v>
       </c>
       <c r="B310" s="1" t="s">
+        <v>774</v>
+      </c>
+      <c r="C310" s="1" t="s">
         <v>775</v>
-      </c>
-      <c r="C310" s="1" t="s">
-        <v>776</v>
       </c>
       <c r="D310" s="1" t="s">
         <v>299</v>
@@ -12303,13 +12376,13 @@
         <v>2019</v>
       </c>
       <c r="F310" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G310" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H310" s="1" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="311" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12317,25 +12390,25 @@
         <v>3303</v>
       </c>
       <c r="B311" s="1" t="s">
+        <v>777</v>
+      </c>
+      <c r="C311" s="1" t="s">
         <v>778</v>
       </c>
-      <c r="C311" s="1" t="s">
-        <v>779</v>
-      </c>
       <c r="D311" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="E311" s="1">
         <v>2017</v>
       </c>
       <c r="F311" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G311" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="312" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12343,10 +12416,10 @@
         <v>3304</v>
       </c>
       <c r="B312" s="1" t="s">
+        <v>779</v>
+      </c>
+      <c r="C312" s="1" t="s">
         <v>780</v>
-      </c>
-      <c r="C312" s="1" t="s">
-        <v>781</v>
       </c>
       <c r="D312" s="1" t="s">
         <v>37</v>
@@ -12355,13 +12428,13 @@
         <v>2019</v>
       </c>
       <c r="F312" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G312" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H312" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="313" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12369,25 +12442,25 @@
         <v>3305</v>
       </c>
       <c r="B313" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="C313" s="1" t="s">
         <v>782</v>
       </c>
-      <c r="C313" s="1" t="s">
+      <c r="D313" s="1" t="s">
         <v>783</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>784</v>
       </c>
       <c r="E313" s="1">
         <v>2007</v>
       </c>
       <c r="F313" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G313" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H313" s="1" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="314" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12395,10 +12468,10 @@
         <v>3306</v>
       </c>
       <c r="B314" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="C314" s="1" t="s">
         <v>786</v>
-      </c>
-      <c r="C314" s="1" t="s">
-        <v>787</v>
       </c>
       <c r="D314" s="1" t="s">
         <v>211</v>
@@ -12407,13 +12480,13 @@
         <v>2019</v>
       </c>
       <c r="F314" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G314" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H314" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="315" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12421,10 +12494,10 @@
         <v>3307</v>
       </c>
       <c r="B315" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="C315" s="1" t="s">
         <v>788</v>
-      </c>
-      <c r="C315" s="1" t="s">
-        <v>789</v>
       </c>
       <c r="D315" s="1" t="s">
         <v>156</v>
@@ -12433,13 +12506,13 @@
         <v>2019</v>
       </c>
       <c r="F315" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G315" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="316" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12447,10 +12520,10 @@
         <v>3308</v>
       </c>
       <c r="B316" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="C316" s="1" t="s">
         <v>790</v>
-      </c>
-      <c r="C316" s="1" t="s">
-        <v>791</v>
       </c>
       <c r="D316" s="1" t="s">
         <v>67</v>
@@ -12459,13 +12532,13 @@
         <v>1993</v>
       </c>
       <c r="F316" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G316" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="317" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12473,10 +12546,10 @@
         <v>3309</v>
       </c>
       <c r="B317" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="C317" s="1" t="s">
         <v>792</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>793</v>
       </c>
       <c r="D317" s="1" t="s">
         <v>87</v>
@@ -12485,13 +12558,13 @@
         <v>2009</v>
       </c>
       <c r="F317" s="1" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="G317" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H317" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="318" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12499,10 +12572,10 @@
         <v>3310</v>
       </c>
       <c r="B318" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="C318" s="1" t="s">
         <v>794</v>
-      </c>
-      <c r="C318" s="1" t="s">
-        <v>795</v>
       </c>
       <c r="D318" s="1" t="s">
         <v>31</v>
@@ -12511,13 +12584,13 @@
         <v>2019</v>
       </c>
       <c r="F318" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G318" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H318" s="4" t="s">
         <v>796</v>
-      </c>
-      <c r="G318" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H318" s="4" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="319" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12525,10 +12598,10 @@
         <v>3311</v>
       </c>
       <c r="B319" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="C319" s="1" t="s">
         <v>798</v>
-      </c>
-      <c r="C319" s="1" t="s">
-        <v>799</v>
       </c>
       <c r="D319" s="1" t="s">
         <v>67</v>
@@ -12537,7 +12610,7 @@
         <v>1995</v>
       </c>
       <c r="F319" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G319" s="4" t="s">
         <v>13</v>
@@ -12551,10 +12624,10 @@
         <v>3312</v>
       </c>
       <c r="B320" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="C320" s="1" t="s">
         <v>800</v>
-      </c>
-      <c r="C320" s="1" t="s">
-        <v>801</v>
       </c>
       <c r="D320" s="1" t="s">
         <v>40</v>
@@ -12563,7 +12636,7 @@
         <v>2010</v>
       </c>
       <c r="F320" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G320" s="4" t="s">
         <v>13</v>
@@ -12577,10 +12650,10 @@
         <v>3313</v>
       </c>
       <c r="B321" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="C321" s="1" t="s">
         <v>802</v>
-      </c>
-      <c r="C321" s="1" t="s">
-        <v>803</v>
       </c>
       <c r="D321" s="1" t="s">
         <v>90</v>
@@ -12589,13 +12662,13 @@
         <v>2008</v>
       </c>
       <c r="F321" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G321" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H321" s="4" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
     </row>
     <row r="322" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12603,25 +12676,25 @@
         <v>3314</v>
       </c>
       <c r="B322" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="C322" s="1" t="s">
         <v>804</v>
       </c>
-      <c r="C322" s="1" t="s">
+      <c r="D322" s="1" t="s">
         <v>805</v>
-      </c>
-      <c r="D322" s="1" t="s">
-        <v>806</v>
       </c>
       <c r="E322" s="1">
         <v>1995</v>
       </c>
       <c r="F322" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G322" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H322" s="4" t="s">
         <v>796</v>
-      </c>
-      <c r="G322" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H322" s="4" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="323" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12629,10 +12702,10 @@
         <v>3315</v>
       </c>
       <c r="B323" s="1" t="s">
+        <v>806</v>
+      </c>
+      <c r="C323" s="1" t="s">
         <v>807</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>808</v>
       </c>
       <c r="D323" s="1" t="s">
         <v>37</v>
@@ -12641,13 +12714,13 @@
         <v>2019</v>
       </c>
       <c r="F323" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G323" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H323" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="324" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12655,10 +12728,10 @@
         <v>3316</v>
       </c>
       <c r="B324" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="C324" s="1" t="s">
         <v>810</v>
-      </c>
-      <c r="C324" s="1" t="s">
-        <v>811</v>
       </c>
       <c r="D324" s="1" t="s">
         <v>40</v>
@@ -12667,7 +12740,7 @@
         <v>2013</v>
       </c>
       <c r="F324" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G324" s="4" t="s">
         <v>13</v>
@@ -12681,10 +12754,10 @@
         <v>3317</v>
       </c>
       <c r="B325" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="C325" s="1" t="s">
         <v>812</v>
-      </c>
-      <c r="C325" s="1" t="s">
-        <v>813</v>
       </c>
       <c r="D325" s="1" t="s">
         <v>67</v>
@@ -12693,7 +12766,7 @@
         <v>2001</v>
       </c>
       <c r="F325" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G325" s="4" t="s">
         <v>13</v>
@@ -12707,10 +12780,10 @@
         <v>3318</v>
       </c>
       <c r="B326" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="C326" s="1" t="s">
         <v>814</v>
-      </c>
-      <c r="C326" s="1" t="s">
-        <v>815</v>
       </c>
       <c r="D326" s="1" t="s">
         <v>58</v>
@@ -12719,7 +12792,7 @@
         <v>2004</v>
       </c>
       <c r="F326" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G326" s="4" t="s">
         <v>13</v>
@@ -12733,10 +12806,10 @@
         <v>3319</v>
       </c>
       <c r="B327" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="C327" s="1" t="s">
         <v>816</v>
-      </c>
-      <c r="C327" s="1" t="s">
-        <v>817</v>
       </c>
       <c r="D327" s="1" t="s">
         <v>67</v>
@@ -12745,13 +12818,13 @@
         <v>1997</v>
       </c>
       <c r="F327" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G327" s="4" t="s">
         <v>13</v>
       </c>
       <c r="H327" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="328" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12759,10 +12832,10 @@
         <v>3320</v>
       </c>
       <c r="B328" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="C328" s="1" t="s">
         <v>818</v>
-      </c>
-      <c r="C328" s="1" t="s">
-        <v>819</v>
       </c>
       <c r="D328" s="1" t="s">
         <v>90</v>
@@ -12771,13 +12844,13 @@
         <v>2005</v>
       </c>
       <c r="F328" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G328" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H328" s="4" t="s">
         <v>796</v>
-      </c>
-      <c r="G328" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H328" s="4" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="329" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12785,19 +12858,19 @@
         <v>3321</v>
       </c>
       <c r="B329" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="C329" s="1" t="s">
         <v>820</v>
       </c>
-      <c r="C329" s="1" t="s">
+      <c r="D329" s="1" t="s">
         <v>821</v>
-      </c>
-      <c r="D329" s="1" t="s">
-        <v>822</v>
       </c>
       <c r="E329" s="1">
         <v>2018</v>
       </c>
       <c r="F329" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G329" s="4" t="s">
         <v>13</v>
@@ -12811,10 +12884,10 @@
         <v>3322</v>
       </c>
       <c r="B330" s="1" t="s">
+        <v>822</v>
+      </c>
+      <c r="C330" s="1" t="s">
         <v>823</v>
-      </c>
-      <c r="C330" s="1" t="s">
-        <v>824</v>
       </c>
       <c r="D330" s="1" t="s">
         <v>124</v>
@@ -12823,13 +12896,13 @@
         <v>2010</v>
       </c>
       <c r="F330" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G330" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="H330" s="4" t="s">
         <v>796</v>
-      </c>
-      <c r="G330" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="H330" s="4" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="331" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12837,19 +12910,19 @@
         <v>3323</v>
       </c>
       <c r="B331" s="1" t="s">
+        <v>824</v>
+      </c>
+      <c r="C331" s="1" t="s">
         <v>825</v>
       </c>
-      <c r="C331" s="1" t="s">
+      <c r="D331" s="1" t="s">
         <v>826</v>
-      </c>
-      <c r="D331" s="1" t="s">
-        <v>827</v>
       </c>
       <c r="E331" s="1">
         <v>2008</v>
       </c>
       <c r="F331" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G331" s="4" t="s">
         <v>13</v>
@@ -12863,25 +12936,25 @@
         <v>3324</v>
       </c>
       <c r="B332" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="C332" s="1" t="s">
         <v>828</v>
       </c>
-      <c r="C332" s="1" t="s">
+      <c r="D332" s="1" t="s">
         <v>829</v>
-      </c>
-      <c r="D332" s="1" t="s">
-        <v>830</v>
       </c>
       <c r="E332" s="1">
         <v>1991</v>
       </c>
       <c r="F332" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G332" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H332" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G332" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H332" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="333" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12889,10 +12962,10 @@
         <v>3325</v>
       </c>
       <c r="B333" s="1" t="s">
+        <v>830</v>
+      </c>
+      <c r="C333" s="1" t="s">
         <v>831</v>
-      </c>
-      <c r="C333" s="1" t="s">
-        <v>832</v>
       </c>
       <c r="D333" s="1" t="s">
         <v>90</v>
@@ -12901,13 +12974,13 @@
         <v>2019</v>
       </c>
       <c r="F333" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G333" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H333" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G333" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H333" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="334" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12915,10 +12988,10 @@
         <v>3326</v>
       </c>
       <c r="B334" s="1" t="s">
+        <v>832</v>
+      </c>
+      <c r="C334" s="1" t="s">
         <v>833</v>
-      </c>
-      <c r="C334" s="1" t="s">
-        <v>834</v>
       </c>
       <c r="D334" s="1" t="s">
         <v>77</v>
@@ -12927,13 +13000,13 @@
         <v>1999</v>
       </c>
       <c r="F334" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G334" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H334" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G334" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H334" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="335" spans="1:8" ht="12.75" x14ac:dyDescent="0.2">
@@ -12941,19 +13014,19 @@
         <v>3327</v>
       </c>
       <c r="B335" s="1" t="s">
+        <v>834</v>
+      </c>
+      <c r="C335" s="1" t="s">
         <v>835</v>
       </c>
-      <c r="C335" s="1" t="s">
-        <v>836</v>
-      </c>
       <c r="D335" s="1" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="E335" s="1">
         <v>2018</v>
       </c>
       <c r="F335" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G335" s="1" t="s">
         <v>13</v>
@@ -12967,10 +13040,10 @@
         <v>3328</v>
       </c>
       <c r="B336" s="1" t="s">
+        <v>836</v>
+      </c>
+      <c r="C336" s="1" t="s">
         <v>837</v>
-      </c>
-      <c r="C336" s="1" t="s">
-        <v>838</v>
       </c>
       <c r="D336" s="1" t="s">
         <v>146</v>
@@ -12979,13 +13052,13 @@
         <v>2019</v>
       </c>
       <c r="F336" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G336" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H336" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G336" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H336" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="337" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -12993,10 +13066,10 @@
         <v>3329</v>
       </c>
       <c r="B337" s="1" t="s">
+        <v>838</v>
+      </c>
+      <c r="C337" s="1" t="s">
         <v>839</v>
-      </c>
-      <c r="C337" s="1" t="s">
-        <v>840</v>
       </c>
       <c r="D337" s="1" t="s">
         <v>67</v>
@@ -13005,7 +13078,7 @@
         <v>2002</v>
       </c>
       <c r="F337" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G337" s="1" t="s">
         <v>13</v>
@@ -13019,10 +13092,10 @@
         <v>3330</v>
       </c>
       <c r="B338" s="1" t="s">
+        <v>840</v>
+      </c>
+      <c r="C338" s="1" t="s">
         <v>841</v>
-      </c>
-      <c r="C338" s="1" t="s">
-        <v>842</v>
       </c>
       <c r="D338" s="1" t="s">
         <v>51</v>
@@ -13031,7 +13104,7 @@
         <v>2007</v>
       </c>
       <c r="F338" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G338" s="1" t="s">
         <v>112</v>
@@ -13045,25 +13118,25 @@
         <v>3331</v>
       </c>
       <c r="B339" s="1" t="s">
+        <v>842</v>
+      </c>
+      <c r="C339" s="1" t="s">
         <v>843</v>
       </c>
-      <c r="C339" s="1" t="s">
+      <c r="D339" s="1" t="s">
         <v>844</v>
-      </c>
-      <c r="D339" s="1" t="s">
-        <v>845</v>
       </c>
       <c r="E339" s="1">
         <v>2018</v>
       </c>
       <c r="F339" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G339" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H339" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G339" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H339" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="340" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13071,7 +13144,7 @@
         <v>3332</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C340" s="1" t="s">
         <v>293</v>
@@ -13083,13 +13156,13 @@
         <v>2019</v>
       </c>
       <c r="F340" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G340" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H340" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G340" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H340" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="341" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13097,10 +13170,10 @@
         <v>3333</v>
       </c>
       <c r="B341" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="C341" s="1" t="s">
         <v>847</v>
-      </c>
-      <c r="C341" s="1" t="s">
-        <v>848</v>
       </c>
       <c r="D341" s="1" t="s">
         <v>54</v>
@@ -13109,13 +13182,13 @@
         <v>2004</v>
       </c>
       <c r="F341" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G341" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H341" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G341" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H341" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="342" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13123,10 +13196,10 @@
         <v>3334</v>
       </c>
       <c r="B342" s="1" t="s">
+        <v>848</v>
+      </c>
+      <c r="C342" s="1" t="s">
         <v>849</v>
-      </c>
-      <c r="C342" s="1" t="s">
-        <v>850</v>
       </c>
       <c r="D342" s="1" t="s">
         <v>67</v>
@@ -13135,13 +13208,13 @@
         <v>1997</v>
       </c>
       <c r="F342" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G342" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H342" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G342" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H342" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="343" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13149,25 +13222,25 @@
         <v>3335</v>
       </c>
       <c r="B343" s="1" t="s">
+        <v>850</v>
+      </c>
+      <c r="C343" s="1" t="s">
         <v>851</v>
       </c>
-      <c r="C343" s="1" t="s">
+      <c r="D343" s="1" t="s">
         <v>852</v>
-      </c>
-      <c r="D343" s="1" t="s">
-        <v>853</v>
       </c>
       <c r="E343" s="1">
         <v>1995</v>
       </c>
       <c r="F343" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G343" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H343" s="1" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="344" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13175,10 +13248,10 @@
         <v>3336</v>
       </c>
       <c r="B344" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="C344" s="1" t="s">
         <v>855</v>
-      </c>
-      <c r="C344" s="1" t="s">
-        <v>856</v>
       </c>
       <c r="D344" s="1" t="s">
         <v>289</v>
@@ -13187,7 +13260,7 @@
         <v>2005</v>
       </c>
       <c r="F344" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G344" s="1" t="s">
         <v>13</v>
@@ -13201,10 +13274,10 @@
         <v>3337</v>
       </c>
       <c r="B345" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="C345" s="1" t="s">
         <v>857</v>
-      </c>
-      <c r="C345" s="1" t="s">
-        <v>858</v>
       </c>
       <c r="D345" s="1" t="s">
         <v>31</v>
@@ -13213,13 +13286,13 @@
         <v>2015</v>
       </c>
       <c r="F345" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G345" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H345" s="1" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="346" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13227,25 +13300,25 @@
         <v>3338</v>
       </c>
       <c r="B346" s="1" t="s">
+        <v>858</v>
+      </c>
+      <c r="C346" s="1" t="s">
         <v>859</v>
       </c>
-      <c r="C346" s="1" t="s">
+      <c r="D346" s="1" t="s">
         <v>860</v>
-      </c>
-      <c r="D346" s="1" t="s">
-        <v>861</v>
       </c>
       <c r="E346" s="1">
         <v>2012</v>
       </c>
       <c r="F346" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G346" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H346" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G346" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H346" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="347" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13253,10 +13326,10 @@
         <v>3339</v>
       </c>
       <c r="B347" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="C347" s="1" t="s">
         <v>862</v>
-      </c>
-      <c r="C347" s="1" t="s">
-        <v>863</v>
       </c>
       <c r="D347" s="1" t="s">
         <v>40</v>
@@ -13265,13 +13338,13 @@
         <v>2019</v>
       </c>
       <c r="F347" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G347" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H347" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="348" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13279,10 +13352,10 @@
         <v>3340</v>
       </c>
       <c r="B348" s="1" t="s">
+        <v>864</v>
+      </c>
+      <c r="C348" s="1" t="s">
         <v>865</v>
-      </c>
-      <c r="C348" s="1" t="s">
-        <v>866</v>
       </c>
       <c r="D348" s="1" t="s">
         <v>40</v>
@@ -13291,13 +13364,13 @@
         <v>2019</v>
       </c>
       <c r="F348" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G348" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H348" s="1" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="349" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13305,19 +13378,19 @@
         <v>3341</v>
       </c>
       <c r="B349" s="1" t="s">
+        <v>866</v>
+      </c>
+      <c r="C349" s="1" t="s">
         <v>867</v>
       </c>
-      <c r="C349" s="1" t="s">
-        <v>868</v>
-      </c>
       <c r="D349" s="1" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="E349" s="1">
         <v>2018</v>
       </c>
       <c r="F349" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G349" s="1" t="s">
         <v>112</v>
@@ -13331,19 +13404,19 @@
         <v>3342</v>
       </c>
       <c r="B350" s="1" t="s">
+        <v>868</v>
+      </c>
+      <c r="C350" s="1" t="s">
         <v>869</v>
       </c>
-      <c r="C350" s="1" t="s">
-        <v>870</v>
-      </c>
       <c r="D350" s="1" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="E350" s="1">
         <v>2014</v>
       </c>
       <c r="F350" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G350" s="1" t="s">
         <v>13</v>
@@ -13357,10 +13430,10 @@
         <v>3343</v>
       </c>
       <c r="B351" s="1" t="s">
+        <v>870</v>
+      </c>
+      <c r="C351" s="1" t="s">
         <v>871</v>
-      </c>
-      <c r="C351" s="1" t="s">
-        <v>872</v>
       </c>
       <c r="D351" s="1" t="s">
         <v>211</v>
@@ -13369,7 +13442,7 @@
         <v>2019</v>
       </c>
       <c r="F351" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G351" s="1" t="s">
         <v>13</v>
@@ -13383,10 +13456,10 @@
         <v>3344</v>
       </c>
       <c r="B352" s="1" t="s">
+        <v>872</v>
+      </c>
+      <c r="C352" s="1" t="s">
         <v>873</v>
-      </c>
-      <c r="C352" s="1" t="s">
-        <v>874</v>
       </c>
       <c r="D352" s="1" t="s">
         <v>67</v>
@@ -13395,13 +13468,13 @@
         <v>1997</v>
       </c>
       <c r="F352" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G352" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H352" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G352" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H352" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="353" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13409,10 +13482,10 @@
         <v>3345</v>
       </c>
       <c r="B353" s="1" t="s">
+        <v>874</v>
+      </c>
+      <c r="C353" s="1" t="s">
         <v>875</v>
-      </c>
-      <c r="C353" s="1" t="s">
-        <v>876</v>
       </c>
       <c r="D353" s="1" t="s">
         <v>169</v>
@@ -13421,13 +13494,13 @@
         <v>2019</v>
       </c>
       <c r="F353" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G353" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H353" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G353" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H353" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="354" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13435,10 +13508,10 @@
         <v>3346</v>
       </c>
       <c r="B354" s="1" t="s">
+        <v>876</v>
+      </c>
+      <c r="C354" s="1" t="s">
         <v>877</v>
-      </c>
-      <c r="C354" s="1" t="s">
-        <v>878</v>
       </c>
       <c r="D354" s="1" t="s">
         <v>40</v>
@@ -13447,13 +13520,13 @@
         <v>2007</v>
       </c>
       <c r="F354" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G354" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H354" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="355" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13461,10 +13534,10 @@
         <v>3347</v>
       </c>
       <c r="B355" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="C355" s="1" t="s">
         <v>880</v>
-      </c>
-      <c r="C355" s="1" t="s">
-        <v>881</v>
       </c>
       <c r="D355" s="1" t="s">
         <v>58</v>
@@ -13473,13 +13546,13 @@
         <v>2002</v>
       </c>
       <c r="F355" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G355" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H355" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G355" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H355" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="356" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13487,10 +13560,10 @@
         <v>3348</v>
       </c>
       <c r="B356" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="C356" s="1" t="s">
         <v>882</v>
-      </c>
-      <c r="C356" s="1" t="s">
-        <v>883</v>
       </c>
       <c r="D356" s="1" t="s">
         <v>406</v>
@@ -13499,13 +13572,13 @@
         <v>2018</v>
       </c>
       <c r="F356" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G356" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H356" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G356" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H356" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="357" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13513,10 +13586,10 @@
         <v>3349</v>
       </c>
       <c r="B357" s="1" t="s">
+        <v>883</v>
+      </c>
+      <c r="C357" s="1" t="s">
         <v>884</v>
-      </c>
-      <c r="C357" s="1" t="s">
-        <v>885</v>
       </c>
       <c r="D357" s="1" t="s">
         <v>67</v>
@@ -13525,13 +13598,13 @@
         <v>1998</v>
       </c>
       <c r="F357" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G357" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H357" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G357" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H357" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="358" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13539,10 +13612,10 @@
         <v>3350</v>
       </c>
       <c r="B358" s="1" t="s">
+        <v>885</v>
+      </c>
+      <c r="C358" s="1" t="s">
         <v>886</v>
-      </c>
-      <c r="C358" s="1" t="s">
-        <v>887</v>
       </c>
       <c r="D358" s="1" t="s">
         <v>406</v>
@@ -13551,13 +13624,13 @@
         <v>2004</v>
       </c>
       <c r="F358" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G358" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H358" s="1" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="359" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13565,10 +13638,10 @@
         <v>3351</v>
       </c>
       <c r="B359" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="C359" s="1" t="s">
         <v>888</v>
-      </c>
-      <c r="C359" s="1" t="s">
-        <v>889</v>
       </c>
       <c r="D359" s="1" t="s">
         <v>375</v>
@@ -13577,7 +13650,7 @@
         <v>2012</v>
       </c>
       <c r="F359" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G359" s="1" t="s">
         <v>13</v>
@@ -13591,25 +13664,25 @@
         <v>3352</v>
       </c>
       <c r="B360" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="C360" s="1" t="s">
         <v>890</v>
       </c>
-      <c r="C360" s="1" t="s">
-        <v>891</v>
-      </c>
       <c r="D360" s="1" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E360" s="1">
         <v>1998</v>
       </c>
       <c r="F360" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G360" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H360" s="1" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="361" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13617,25 +13690,25 @@
         <v>3353</v>
       </c>
       <c r="B361" s="1" t="s">
+        <v>892</v>
+      </c>
+      <c r="C361" s="1" t="s">
         <v>893</v>
       </c>
-      <c r="C361" s="1" t="s">
+      <c r="D361" s="1" t="s">
         <v>894</v>
-      </c>
-      <c r="D361" s="1" t="s">
-        <v>895</v>
       </c>
       <c r="E361" s="1">
         <v>1994</v>
       </c>
       <c r="F361" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G361" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H361" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G361" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H361" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="362" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13643,19 +13716,19 @@
         <v>3354</v>
       </c>
       <c r="B362" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="C362" s="1" t="s">
         <v>896</v>
       </c>
-      <c r="C362" s="1" t="s">
+      <c r="D362" s="1" t="s">
         <v>897</v>
-      </c>
-      <c r="D362" s="1" t="s">
-        <v>898</v>
       </c>
       <c r="E362" s="1">
         <v>2013</v>
       </c>
       <c r="F362" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G362" s="1" t="s">
         <v>13</v>
@@ -13669,10 +13742,10 @@
         <v>3355</v>
       </c>
       <c r="B363" s="1" t="s">
+        <v>898</v>
+      </c>
+      <c r="C363" s="1" t="s">
         <v>899</v>
-      </c>
-      <c r="C363" s="1" t="s">
-        <v>900</v>
       </c>
       <c r="D363" s="1" t="s">
         <v>54</v>
@@ -13681,7 +13754,7 @@
         <v>2018</v>
       </c>
       <c r="F363" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G363" s="1" t="s">
         <v>112</v>
@@ -13695,10 +13768,10 @@
         <v>3356</v>
       </c>
       <c r="B364" s="1" t="s">
+        <v>900</v>
+      </c>
+      <c r="C364" s="1" t="s">
         <v>901</v>
-      </c>
-      <c r="C364" s="1" t="s">
-        <v>902</v>
       </c>
       <c r="D364" s="1" t="s">
         <v>54</v>
@@ -13707,13 +13780,13 @@
         <v>2002</v>
       </c>
       <c r="F364" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G364" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H364" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G364" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H364" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="365" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13721,10 +13794,10 @@
         <v>3357</v>
       </c>
       <c r="B365" s="1" t="s">
+        <v>902</v>
+      </c>
+      <c r="C365" s="1" t="s">
         <v>903</v>
-      </c>
-      <c r="C365" s="1" t="s">
-        <v>904</v>
       </c>
       <c r="D365" s="1" t="s">
         <v>24</v>
@@ -13733,7 +13806,7 @@
         <v>2010</v>
       </c>
       <c r="F365" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G365" s="1" t="s">
         <v>13</v>
@@ -13747,10 +13820,10 @@
         <v>3358</v>
       </c>
       <c r="B366" s="1" t="s">
+        <v>904</v>
+      </c>
+      <c r="C366" s="1" t="s">
         <v>905</v>
-      </c>
-      <c r="C366" s="1" t="s">
-        <v>906</v>
       </c>
       <c r="D366" s="1" t="s">
         <v>406</v>
@@ -13759,13 +13832,13 @@
         <v>2000</v>
       </c>
       <c r="F366" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G366" s="1" t="s">
         <v>112</v>
       </c>
       <c r="H366" s="1" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
       <c r="I366" s="1" t="s">
         <v>113</v>
@@ -13776,19 +13849,19 @@
         <v>3359</v>
       </c>
       <c r="B367" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="C367" s="1" t="s">
         <v>908</v>
       </c>
-      <c r="C367" s="1" t="s">
+      <c r="D367" s="1" t="s">
         <v>909</v>
-      </c>
-      <c r="D367" s="1" t="s">
-        <v>910</v>
       </c>
       <c r="E367" s="1">
         <v>2012</v>
       </c>
       <c r="F367" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G367" s="1" t="s">
         <v>112</v>
@@ -13802,10 +13875,10 @@
         <v>3360</v>
       </c>
       <c r="B368" s="1" t="s">
+        <v>910</v>
+      </c>
+      <c r="C368" s="1" t="s">
         <v>911</v>
-      </c>
-      <c r="C368" s="1" t="s">
-        <v>912</v>
       </c>
       <c r="D368" s="1" t="s">
         <v>169</v>
@@ -13814,13 +13887,13 @@
         <v>2007</v>
       </c>
       <c r="F368" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G368" s="1" t="s">
         <v>13</v>
       </c>
       <c r="H368" s="1" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="369" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13828,10 +13901,10 @@
         <v>3361</v>
       </c>
       <c r="B369" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="C369" s="1" t="s">
         <v>914</v>
-      </c>
-      <c r="C369" s="1" t="s">
-        <v>915</v>
       </c>
       <c r="D369" s="1" t="s">
         <v>169</v>
@@ -13840,13 +13913,13 @@
         <v>2000</v>
       </c>
       <c r="F369" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G369" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H369" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G369" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H369" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="370" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13854,10 +13927,10 @@
         <v>3362</v>
       </c>
       <c r="B370" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="C370" s="1" t="s">
         <v>916</v>
-      </c>
-      <c r="C370" s="1" t="s">
-        <v>917</v>
       </c>
       <c r="D370" s="1" t="s">
         <v>211</v>
@@ -13866,13 +13939,13 @@
         <v>2017</v>
       </c>
       <c r="F370" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G370" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H370" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G370" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H370" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="371" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13880,10 +13953,10 @@
         <v>3363</v>
       </c>
       <c r="B371" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="C371" s="1" t="s">
         <v>918</v>
-      </c>
-      <c r="C371" s="1" t="s">
-        <v>919</v>
       </c>
       <c r="D371" s="1" t="s">
         <v>58</v>
@@ -13892,7 +13965,7 @@
         <v>2010</v>
       </c>
       <c r="F371" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G371" s="1" t="s">
         <v>112</v>
@@ -13906,10 +13979,10 @@
         <v>3364</v>
       </c>
       <c r="B372" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="C372" s="1" t="s">
         <v>920</v>
-      </c>
-      <c r="C372" s="1" t="s">
-        <v>921</v>
       </c>
       <c r="D372" s="1" t="s">
         <v>124</v>
@@ -13918,7 +13991,7 @@
         <v>2013</v>
       </c>
       <c r="F372" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G372" s="1" t="s">
         <v>13</v>
@@ -13932,10 +14005,10 @@
         <v>3365</v>
       </c>
       <c r="B373" s="1" t="s">
+        <v>921</v>
+      </c>
+      <c r="C373" s="1" t="s">
         <v>922</v>
-      </c>
-      <c r="C373" s="1" t="s">
-        <v>923</v>
       </c>
       <c r="D373" s="1" t="s">
         <v>40</v>
@@ -13944,16 +14017,16 @@
         <v>2015</v>
       </c>
       <c r="F373" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G373" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H373" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I373" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="374" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13961,10 +14034,10 @@
         <v>3366</v>
       </c>
       <c r="B374" s="1" t="s">
+        <v>924</v>
+      </c>
+      <c r="C374" s="1" t="s">
         <v>925</v>
-      </c>
-      <c r="C374" s="1" t="s">
-        <v>926</v>
       </c>
       <c r="D374" s="1" t="s">
         <v>51</v>
@@ -13973,16 +14046,16 @@
         <v>2012</v>
       </c>
       <c r="F374" s="1" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G374" s="3" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="H374" s="1" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="I374" s="1" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
     </row>
     <row r="375" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -13990,10 +14063,10 @@
         <v>3367</v>
       </c>
       <c r="B375" s="1" t="s">
+        <v>926</v>
+      </c>
+      <c r="C375" s="1" t="s">
         <v>927</v>
-      </c>
-      <c r="C375" s="1" t="s">
-        <v>928</v>
       </c>
       <c r="D375" s="1" t="s">
         <v>31</v>
@@ -14002,13 +14075,13 @@
         <v>2019</v>
       </c>
       <c r="F375" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G375" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H375" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G375" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H375" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="376" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -14016,10 +14089,10 @@
         <v>3368</v>
       </c>
       <c r="B376" s="1" t="s">
+        <v>928</v>
+      </c>
+      <c r="C376" s="1" t="s">
         <v>929</v>
-      </c>
-      <c r="C376" s="1" t="s">
-        <v>930</v>
       </c>
       <c r="D376" s="1" t="s">
         <v>31</v>
@@ -14028,13 +14101,13 @@
         <v>2019</v>
       </c>
       <c r="F376" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G376" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H376" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G376" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H376" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="377" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -14042,25 +14115,25 @@
         <v>3369</v>
       </c>
       <c r="B377" s="1" t="s">
+        <v>930</v>
+      </c>
+      <c r="C377" s="1" t="s">
         <v>931</v>
       </c>
-      <c r="C377" s="1" t="s">
-        <v>932</v>
-      </c>
       <c r="D377" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E377" s="1">
         <v>2013</v>
       </c>
       <c r="F377" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="G377" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H377" s="1" t="s">
         <v>796</v>
-      </c>
-      <c r="G377" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H377" s="1" t="s">
-        <v>797</v>
       </c>
     </row>
     <row r="378" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -14068,10 +14141,10 @@
         <v>3370</v>
       </c>
       <c r="B378" s="1" t="s">
+        <v>932</v>
+      </c>
+      <c r="C378" s="1" t="s">
         <v>933</v>
-      </c>
-      <c r="C378" s="1" t="s">
-        <v>934</v>
       </c>
       <c r="D378" s="1" t="s">
         <v>40</v>
@@ -14080,7 +14153,7 @@
         <v>2013</v>
       </c>
       <c r="F378" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="379" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -14088,10 +14161,10 @@
         <v>3371</v>
       </c>
       <c r="B379" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="C379" s="1" t="s">
         <v>936</v>
-      </c>
-      <c r="C379" s="1" t="s">
-        <v>937</v>
       </c>
       <c r="D379" s="1" t="s">
         <v>31</v>
@@ -14100,7 +14173,7 @@
         <v>2010</v>
       </c>
       <c r="F379" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="380" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -14108,10 +14181,10 @@
         <v>3372</v>
       </c>
       <c r="B380" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="C380" s="1" t="s">
         <v>938</v>
-      </c>
-      <c r="C380" s="1" t="s">
-        <v>939</v>
       </c>
       <c r="D380" s="1" t="s">
         <v>51</v>
@@ -14120,7 +14193,7 @@
         <v>2002</v>
       </c>
       <c r="F380" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="381" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -14128,10 +14201,10 @@
         <v>3373</v>
       </c>
       <c r="B381" s="1" t="s">
+        <v>939</v>
+      </c>
+      <c r="C381" s="1" t="s">
         <v>940</v>
-      </c>
-      <c r="C381" s="1" t="s">
-        <v>941</v>
       </c>
       <c r="D381" s="1" t="s">
         <v>211</v>
@@ -14140,7 +14213,7 @@
         <v>2018</v>
       </c>
       <c r="F381" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="382" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -14148,10 +14221,10 @@
         <v>3374</v>
       </c>
       <c r="B382" s="1" t="s">
+        <v>941</v>
+      </c>
+      <c r="C382" s="1" t="s">
         <v>942</v>
-      </c>
-      <c r="C382" s="1" t="s">
-        <v>943</v>
       </c>
       <c r="D382" s="1" t="s">
         <v>67</v>
@@ -14160,7 +14233,7 @@
         <v>2002</v>
       </c>
       <c r="F382" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="383" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -14168,10 +14241,10 @@
         <v>3375</v>
       </c>
       <c r="B383" s="1" t="s">
+        <v>943</v>
+      </c>
+      <c r="C383" s="1" t="s">
         <v>944</v>
-      </c>
-      <c r="C383" s="1" t="s">
-        <v>945</v>
       </c>
       <c r="D383" s="1" t="s">
         <v>457</v>
@@ -14180,7 +14253,7 @@
         <v>2018</v>
       </c>
       <c r="F383" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="384" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -14188,10 +14261,10 @@
         <v>3376</v>
       </c>
       <c r="B384" s="1" t="s">
+        <v>945</v>
+      </c>
+      <c r="C384" s="1" t="s">
         <v>946</v>
-      </c>
-      <c r="C384" s="1" t="s">
-        <v>947</v>
       </c>
       <c r="D384" s="1" t="s">
         <v>90</v>
@@ -14200,7 +14273,7 @@
         <v>1997</v>
       </c>
       <c r="F384" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="385" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14208,10 +14281,10 @@
         <v>3377</v>
       </c>
       <c r="B385" s="1" t="s">
+        <v>947</v>
+      </c>
+      <c r="C385" s="1" t="s">
         <v>948</v>
-      </c>
-      <c r="C385" s="1" t="s">
-        <v>949</v>
       </c>
       <c r="D385" s="1" t="s">
         <v>67</v>
@@ -14220,7 +14293,7 @@
         <v>1998</v>
       </c>
       <c r="F385" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="386" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14228,10 +14301,10 @@
         <v>3378</v>
       </c>
       <c r="B386" s="1" t="s">
+        <v>949</v>
+      </c>
+      <c r="C386" s="1" t="s">
         <v>950</v>
-      </c>
-      <c r="C386" s="1" t="s">
-        <v>951</v>
       </c>
       <c r="D386" s="1" t="s">
         <v>58</v>
@@ -14240,7 +14313,7 @@
         <v>2019</v>
       </c>
       <c r="F386" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="387" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14248,10 +14321,10 @@
         <v>3379</v>
       </c>
       <c r="B387" s="1" t="s">
+        <v>951</v>
+      </c>
+      <c r="C387" s="1" t="s">
         <v>952</v>
-      </c>
-      <c r="C387" s="1" t="s">
-        <v>953</v>
       </c>
       <c r="D387" s="1" t="s">
         <v>328</v>
@@ -14260,7 +14333,7 @@
         <v>2019</v>
       </c>
       <c r="F387" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="388" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14268,10 +14341,10 @@
         <v>3380</v>
       </c>
       <c r="B388" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="C388" s="1" t="s">
         <v>954</v>
-      </c>
-      <c r="C388" s="1" t="s">
-        <v>955</v>
       </c>
       <c r="D388" s="1" t="s">
         <v>406</v>
@@ -14280,7 +14353,7 @@
         <v>2019</v>
       </c>
       <c r="F388" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="389" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14288,10 +14361,10 @@
         <v>3381</v>
       </c>
       <c r="B389" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="C389" s="1" t="s">
         <v>956</v>
-      </c>
-      <c r="C389" s="1" t="s">
-        <v>957</v>
       </c>
       <c r="D389" s="1" t="s">
         <v>40</v>
@@ -14300,7 +14373,7 @@
         <v>2018</v>
       </c>
       <c r="F389" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="390" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14308,10 +14381,10 @@
         <v>3382</v>
       </c>
       <c r="B390" s="1" t="s">
+        <v>957</v>
+      </c>
+      <c r="C390" s="1" t="s">
         <v>958</v>
-      </c>
-      <c r="C390" s="1" t="s">
-        <v>959</v>
       </c>
       <c r="D390" s="1" t="s">
         <v>40</v>
@@ -14320,7 +14393,7 @@
         <v>2011</v>
       </c>
       <c r="F390" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="391" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14328,19 +14401,19 @@
         <v>3383</v>
       </c>
       <c r="B391" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="C391" s="1" t="s">
         <v>960</v>
       </c>
-      <c r="C391" s="1" t="s">
-        <v>961</v>
-      </c>
       <c r="D391" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E391" s="1">
         <v>1996</v>
       </c>
       <c r="F391" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="392" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14348,10 +14421,10 @@
         <v>3384</v>
       </c>
       <c r="B392" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="C392" s="1" t="s">
         <v>962</v>
-      </c>
-      <c r="C392" s="1" t="s">
-        <v>963</v>
       </c>
       <c r="D392" s="1" t="s">
         <v>51</v>
@@ -14360,7 +14433,7 @@
         <v>1995</v>
       </c>
       <c r="F392" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="393" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14368,10 +14441,10 @@
         <v>3385</v>
       </c>
       <c r="B393" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="C393" s="1" t="s">
         <v>964</v>
-      </c>
-      <c r="C393" s="1" t="s">
-        <v>965</v>
       </c>
       <c r="D393" s="1" t="s">
         <v>211</v>
@@ -14380,7 +14453,7 @@
         <v>2015</v>
       </c>
       <c r="F393" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="394" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14388,10 +14461,10 @@
         <v>3386</v>
       </c>
       <c r="B394" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="C394" s="1" t="s">
         <v>966</v>
-      </c>
-      <c r="C394" s="1" t="s">
-        <v>967</v>
       </c>
       <c r="D394" s="1" t="s">
         <v>37</v>
@@ -14400,7 +14473,7 @@
         <v>2009</v>
       </c>
       <c r="F394" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="395" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14408,10 +14481,10 @@
         <v>3387</v>
       </c>
       <c r="B395" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="C395" s="1" t="s">
         <v>968</v>
-      </c>
-      <c r="C395" s="1" t="s">
-        <v>969</v>
       </c>
       <c r="D395" s="1" t="s">
         <v>87</v>
@@ -14420,7 +14493,7 @@
         <v>2008</v>
       </c>
       <c r="F395" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="396" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14428,10 +14501,10 @@
         <v>3388</v>
       </c>
       <c r="B396" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="C396" s="1" t="s">
         <v>970</v>
-      </c>
-      <c r="C396" s="1" t="s">
-        <v>971</v>
       </c>
       <c r="D396" s="1" t="s">
         <v>31</v>
@@ -14440,7 +14513,7 @@
         <v>2019</v>
       </c>
       <c r="F396" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="397" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14448,10 +14521,10 @@
         <v>3389</v>
       </c>
       <c r="B397" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="C397" s="1" t="s">
         <v>972</v>
-      </c>
-      <c r="C397" s="1" t="s">
-        <v>973</v>
       </c>
       <c r="D397" s="1" t="s">
         <v>398</v>
@@ -14460,7 +14533,7 @@
         <v>2018</v>
       </c>
       <c r="F397" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="398" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14468,10 +14541,10 @@
         <v>3390</v>
       </c>
       <c r="B398" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="C398" s="1" t="s">
         <v>974</v>
-      </c>
-      <c r="C398" s="1" t="s">
-        <v>975</v>
       </c>
       <c r="D398" s="1" t="s">
         <v>124</v>
@@ -14480,7 +14553,7 @@
         <v>2018</v>
       </c>
       <c r="F398" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="399" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14488,10 +14561,10 @@
         <v>3391</v>
       </c>
       <c r="B399" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="C399" s="1" t="s">
         <v>976</v>
-      </c>
-      <c r="C399" s="1" t="s">
-        <v>977</v>
       </c>
       <c r="D399" s="1" t="s">
         <v>124</v>
@@ -14500,7 +14573,7 @@
         <v>2018</v>
       </c>
       <c r="F399" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="400" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14508,19 +14581,19 @@
         <v>3392</v>
       </c>
       <c r="B400" s="1" t="s">
+        <v>977</v>
+      </c>
+      <c r="C400" s="1" t="s">
         <v>978</v>
       </c>
-      <c r="C400" s="1" t="s">
+      <c r="D400" s="1" t="s">
         <v>979</v>
-      </c>
-      <c r="D400" s="1" t="s">
-        <v>980</v>
       </c>
       <c r="E400" s="1">
         <v>2019</v>
       </c>
       <c r="F400" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="401" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14528,10 +14601,10 @@
         <v>3393</v>
       </c>
       <c r="B401" s="1" t="s">
+        <v>980</v>
+      </c>
+      <c r="C401" s="1" t="s">
         <v>981</v>
-      </c>
-      <c r="C401" s="1" t="s">
-        <v>982</v>
       </c>
       <c r="D401" s="1" t="s">
         <v>124</v>
@@ -14540,7 +14613,7 @@
         <v>2016</v>
       </c>
       <c r="F401" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="402" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14548,10 +14621,10 @@
         <v>3394</v>
       </c>
       <c r="B402" s="1" t="s">
+        <v>982</v>
+      </c>
+      <c r="C402" s="1" t="s">
         <v>983</v>
-      </c>
-      <c r="C402" s="1" t="s">
-        <v>984</v>
       </c>
       <c r="D402" s="1" t="s">
         <v>40</v>
@@ -14560,7 +14633,7 @@
         <v>2018</v>
       </c>
       <c r="F402" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="403" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14568,10 +14641,10 @@
         <v>3395</v>
       </c>
       <c r="B403" s="1" t="s">
+        <v>984</v>
+      </c>
+      <c r="C403" s="1" t="s">
         <v>985</v>
-      </c>
-      <c r="C403" s="1" t="s">
-        <v>986</v>
       </c>
       <c r="D403" s="1" t="s">
         <v>40</v>
@@ -14580,7 +14653,7 @@
         <v>2015</v>
       </c>
       <c r="F403" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="404" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14588,10 +14661,10 @@
         <v>3396</v>
       </c>
       <c r="B404" s="1" t="s">
+        <v>986</v>
+      </c>
+      <c r="C404" s="1" t="s">
         <v>987</v>
-      </c>
-      <c r="C404" s="1" t="s">
-        <v>988</v>
       </c>
       <c r="D404" s="1" t="s">
         <v>11</v>
@@ -14600,7 +14673,7 @@
         <v>2006</v>
       </c>
       <c r="F404" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="405" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14608,10 +14681,10 @@
         <v>3397</v>
       </c>
       <c r="B405" s="1" t="s">
+        <v>988</v>
+      </c>
+      <c r="C405" s="1" t="s">
         <v>989</v>
-      </c>
-      <c r="C405" s="1" t="s">
-        <v>990</v>
       </c>
       <c r="D405" s="1" t="s">
         <v>77</v>
@@ -14620,7 +14693,7 @@
         <v>2016</v>
       </c>
       <c r="F405" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="406" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14628,10 +14701,10 @@
         <v>3398</v>
       </c>
       <c r="B406" s="1" t="s">
+        <v>990</v>
+      </c>
+      <c r="C406" s="1" t="s">
         <v>991</v>
-      </c>
-      <c r="C406" s="1" t="s">
-        <v>992</v>
       </c>
       <c r="D406" s="1" t="s">
         <v>51</v>
@@ -14640,7 +14713,7 @@
         <v>1997</v>
       </c>
       <c r="F406" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="407" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14648,19 +14721,19 @@
         <v>3399</v>
       </c>
       <c r="B407" s="1" t="s">
+        <v>992</v>
+      </c>
+      <c r="C407" s="1" t="s">
         <v>993</v>
       </c>
-      <c r="C407" s="1" t="s">
-        <v>994</v>
-      </c>
       <c r="D407" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E407" s="1">
         <v>2010</v>
       </c>
       <c r="F407" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="408" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14668,10 +14741,10 @@
         <v>3400</v>
       </c>
       <c r="B408" s="1" t="s">
+        <v>994</v>
+      </c>
+      <c r="C408" s="1" t="s">
         <v>995</v>
-      </c>
-      <c r="C408" s="1" t="s">
-        <v>996</v>
       </c>
       <c r="D408" s="1" t="s">
         <v>17</v>
@@ -14680,7 +14753,7 @@
         <v>2011</v>
       </c>
       <c r="F408" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="409" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14688,10 +14761,10 @@
         <v>3401</v>
       </c>
       <c r="B409" s="1" t="s">
+        <v>996</v>
+      </c>
+      <c r="C409" s="1" t="s">
         <v>997</v>
-      </c>
-      <c r="C409" s="1" t="s">
-        <v>998</v>
       </c>
       <c r="D409" s="1" t="s">
         <v>146</v>
@@ -14700,7 +14773,7 @@
         <v>2013</v>
       </c>
       <c r="F409" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="410" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14708,10 +14781,10 @@
         <v>3402</v>
       </c>
       <c r="B410" s="1" t="s">
+        <v>998</v>
+      </c>
+      <c r="C410" s="1" t="s">
         <v>999</v>
-      </c>
-      <c r="C410" s="1" t="s">
-        <v>1000</v>
       </c>
       <c r="D410" s="1" t="s">
         <v>361</v>
@@ -14720,7 +14793,7 @@
         <v>2009</v>
       </c>
       <c r="F410" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="411" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14728,10 +14801,10 @@
         <v>3403</v>
       </c>
       <c r="B411" s="1" t="s">
+        <v>1000</v>
+      </c>
+      <c r="C411" s="1" t="s">
         <v>1001</v>
-      </c>
-      <c r="C411" s="1" t="s">
-        <v>1002</v>
       </c>
       <c r="D411" s="1" t="s">
         <v>58</v>
@@ -14740,7 +14813,7 @@
         <v>2006</v>
       </c>
       <c r="F411" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="412" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14748,10 +14821,10 @@
         <v>3404</v>
       </c>
       <c r="B412" s="1" t="s">
+        <v>1002</v>
+      </c>
+      <c r="C412" s="1" t="s">
         <v>1003</v>
-      </c>
-      <c r="C412" s="1" t="s">
-        <v>1004</v>
       </c>
       <c r="D412" s="1" t="s">
         <v>204</v>
@@ -14760,7 +14833,7 @@
         <v>2001</v>
       </c>
       <c r="F412" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="413" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14768,10 +14841,10 @@
         <v>3405</v>
       </c>
       <c r="B413" s="1" t="s">
+        <v>1004</v>
+      </c>
+      <c r="C413" s="1" t="s">
         <v>1005</v>
-      </c>
-      <c r="C413" s="1" t="s">
-        <v>1006</v>
       </c>
       <c r="D413" s="1" t="s">
         <v>40</v>
@@ -14780,7 +14853,7 @@
         <v>2011</v>
       </c>
       <c r="F413" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="414" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14788,10 +14861,10 @@
         <v>3406</v>
       </c>
       <c r="B414" s="1" t="s">
+        <v>1006</v>
+      </c>
+      <c r="C414" s="1" t="s">
         <v>1007</v>
-      </c>
-      <c r="C414" s="1" t="s">
-        <v>1008</v>
       </c>
       <c r="D414" s="1" t="s">
         <v>190</v>
@@ -14800,7 +14873,7 @@
         <v>2001</v>
       </c>
       <c r="F414" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="415" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14808,19 +14881,19 @@
         <v>3407</v>
       </c>
       <c r="B415" s="1" t="s">
+        <v>1008</v>
+      </c>
+      <c r="C415" s="1" t="s">
         <v>1009</v>
       </c>
-      <c r="C415" s="1" t="s">
-        <v>1010</v>
-      </c>
       <c r="D415" s="1" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="E415" s="1">
         <v>2019</v>
       </c>
       <c r="F415" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="416" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14828,19 +14901,19 @@
         <v>3408</v>
       </c>
       <c r="B416" s="1" t="s">
+        <v>1010</v>
+      </c>
+      <c r="C416" s="1" t="s">
         <v>1011</v>
       </c>
-      <c r="C416" s="1" t="s">
-        <v>1012</v>
-      </c>
       <c r="D416" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E416" s="1">
         <v>2001</v>
       </c>
       <c r="F416" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="417" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14848,19 +14921,19 @@
         <v>3409</v>
       </c>
       <c r="B417" s="1" t="s">
+        <v>1012</v>
+      </c>
+      <c r="C417" s="1" t="s">
         <v>1013</v>
       </c>
-      <c r="C417" s="1" t="s">
-        <v>1014</v>
-      </c>
       <c r="D417" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="E417" s="1">
         <v>2018</v>
       </c>
       <c r="F417" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="418" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14868,10 +14941,10 @@
         <v>3410</v>
       </c>
       <c r="B418" s="1" t="s">
+        <v>1014</v>
+      </c>
+      <c r="C418" s="1" t="s">
         <v>1015</v>
-      </c>
-      <c r="C418" s="1" t="s">
-        <v>1016</v>
       </c>
       <c r="D418" s="1" t="s">
         <v>289</v>
@@ -14880,7 +14953,7 @@
         <v>2011</v>
       </c>
       <c r="F418" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="419" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14888,19 +14961,19 @@
         <v>3411</v>
       </c>
       <c r="B419" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="C419" s="1" t="s">
         <v>1017</v>
       </c>
-      <c r="C419" s="1" t="s">
+      <c r="D419" s="1" t="s">
         <v>1018</v>
-      </c>
-      <c r="D419" s="1" t="s">
-        <v>1019</v>
       </c>
       <c r="E419" s="1">
         <v>2019</v>
       </c>
       <c r="F419" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="420" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14908,10 +14981,10 @@
         <v>3412</v>
       </c>
       <c r="B420" s="1" t="s">
+        <v>1019</v>
+      </c>
+      <c r="C420" s="1" t="s">
         <v>1020</v>
-      </c>
-      <c r="C420" s="1" t="s">
-        <v>1021</v>
       </c>
       <c r="D420" s="1" t="s">
         <v>90</v>
@@ -14920,7 +14993,7 @@
         <v>2006</v>
       </c>
       <c r="F420" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="421" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14928,10 +15001,10 @@
         <v>3413</v>
       </c>
       <c r="B421" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C421" s="1" t="s">
         <v>1022</v>
-      </c>
-      <c r="C421" s="1" t="s">
-        <v>1023</v>
       </c>
       <c r="D421" s="1" t="s">
         <v>211</v>
@@ -14940,7 +15013,7 @@
         <v>2018</v>
       </c>
       <c r="F421" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="422" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14948,10 +15021,10 @@
         <v>3414</v>
       </c>
       <c r="B422" s="1" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C422" s="1" t="s">
         <v>1024</v>
-      </c>
-      <c r="C422" s="1" t="s">
-        <v>1025</v>
       </c>
       <c r="D422" s="1" t="s">
         <v>70</v>
@@ -14960,7 +15033,7 @@
         <v>2018</v>
       </c>
       <c r="F422" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="423" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14968,10 +15041,10 @@
         <v>3415</v>
       </c>
       <c r="B423" s="1" t="s">
+        <v>1025</v>
+      </c>
+      <c r="C423" s="1" t="s">
         <v>1026</v>
-      </c>
-      <c r="C423" s="1" t="s">
-        <v>1027</v>
       </c>
       <c r="D423" s="1" t="s">
         <v>51</v>
@@ -14980,7 +15053,7 @@
         <v>1999</v>
       </c>
       <c r="F423" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="424" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -14988,10 +15061,10 @@
         <v>3416</v>
       </c>
       <c r="B424" s="1" t="s">
+        <v>1027</v>
+      </c>
+      <c r="C424" s="1" t="s">
         <v>1028</v>
-      </c>
-      <c r="C424" s="1" t="s">
-        <v>1029</v>
       </c>
       <c r="D424" s="1" t="s">
         <v>116</v>
@@ -15000,7 +15073,7 @@
         <v>2007</v>
       </c>
       <c r="F424" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="425" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -15008,10 +15081,10 @@
         <v>3417</v>
       </c>
       <c r="B425" s="1" t="s">
+        <v>1029</v>
+      </c>
+      <c r="C425" s="1" t="s">
         <v>1030</v>
-      </c>
-      <c r="C425" s="1" t="s">
-        <v>1031</v>
       </c>
       <c r="D425" s="1" t="s">
         <v>87</v>
@@ -15020,7 +15093,7 @@
         <v>2017</v>
       </c>
       <c r="F425" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="426" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -15028,10 +15101,10 @@
         <v>3418</v>
       </c>
       <c r="B426" s="1" t="s">
+        <v>1031</v>
+      </c>
+      <c r="C426" s="1" t="s">
         <v>1032</v>
-      </c>
-      <c r="C426" s="1" t="s">
-        <v>1033</v>
       </c>
       <c r="D426" s="1" t="s">
         <v>40</v>
@@ -15040,7 +15113,7 @@
         <v>2013</v>
       </c>
       <c r="F426" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="427" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -15048,10 +15121,10 @@
         <v>3419</v>
       </c>
       <c r="B427" s="1" t="s">
+        <v>1033</v>
+      </c>
+      <c r="C427" s="1" t="s">
         <v>1034</v>
-      </c>
-      <c r="C427" s="1" t="s">
-        <v>1035</v>
       </c>
       <c r="D427" s="1" t="s">
         <v>169</v>
@@ -15060,7 +15133,7 @@
         <v>2017</v>
       </c>
       <c r="F427" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="428" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -15068,10 +15141,10 @@
         <v>3420</v>
       </c>
       <c r="B428" s="1" t="s">
+        <v>1035</v>
+      </c>
+      <c r="C428" s="1" t="s">
         <v>1036</v>
-      </c>
-      <c r="C428" s="1" t="s">
-        <v>1037</v>
       </c>
       <c r="D428" s="1" t="s">
         <v>90</v>
@@ -15080,7 +15153,7 @@
         <v>2004</v>
       </c>
       <c r="F428" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="429" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -15088,10 +15161,10 @@
         <v>3421</v>
       </c>
       <c r="B429" s="1" t="s">
+        <v>1037</v>
+      </c>
+      <c r="C429" s="1" t="s">
         <v>1038</v>
-      </c>
-      <c r="C429" s="1" t="s">
-        <v>1039</v>
       </c>
       <c r="D429" s="1" t="s">
         <v>51</v>
@@ -15100,7 +15173,7 @@
         <v>2019</v>
       </c>
       <c r="F429" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="430" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -15108,10 +15181,10 @@
         <v>3422</v>
       </c>
       <c r="B430" s="1" t="s">
+        <v>1039</v>
+      </c>
+      <c r="C430" s="1" t="s">
         <v>1040</v>
-      </c>
-      <c r="C430" s="1" t="s">
-        <v>1041</v>
       </c>
       <c r="D430" s="1" t="s">
         <v>375</v>
@@ -15120,7 +15193,7 @@
         <v>1992</v>
       </c>
       <c r="F430" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="431" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -15128,10 +15201,10 @@
         <v>3423</v>
       </c>
       <c r="B431" s="1" t="s">
+        <v>1041</v>
+      </c>
+      <c r="C431" s="1" t="s">
         <v>1042</v>
-      </c>
-      <c r="C431" s="1" t="s">
-        <v>1043</v>
       </c>
       <c r="D431" s="1" t="s">
         <v>31</v>
@@ -15140,7 +15213,7 @@
         <v>2014</v>
       </c>
       <c r="F431" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="432" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
@@ -15148,19 +15221,19 @@
         <v>3424</v>
       </c>
       <c r="B432" s="1" t="s">
+        <v>1043</v>
+      </c>
+      <c r="C432" s="1" t="s">
         <v>1044</v>
       </c>
-      <c r="C432" s="1" t="s">
+      <c r="D432" s="1" t="s">
         <v>1045</v>
-      </c>
-      <c r="D432" s="1" t="s">
-        <v>1046</v>
       </c>
       <c r="E432" s="1">
         <v>2017</v>
       </c>
       <c r="F432" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="433" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -15168,10 +15241,10 @@
         <v>3425</v>
       </c>
       <c r="B433" s="1" t="s">
+        <v>1046</v>
+      </c>
+      <c r="C433" s="1" t="s">
         <v>1047</v>
-      </c>
-      <c r="C433" s="1" t="s">
-        <v>1048</v>
       </c>
       <c r="D433" s="1" t="s">
         <v>211</v>
@@ -15180,7 +15253,7 @@
         <v>2018</v>
       </c>
       <c r="F433" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="434" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -15188,10 +15261,10 @@
         <v>3426</v>
       </c>
       <c r="B434" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="C434" s="1" t="s">
         <v>1049</v>
-      </c>
-      <c r="C434" s="1" t="s">
-        <v>1050</v>
       </c>
       <c r="D434" s="1" t="s">
         <v>51</v>
@@ -15200,7 +15273,7 @@
         <v>2004</v>
       </c>
       <c r="F434" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="435" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -15208,10 +15281,10 @@
         <v>3427</v>
       </c>
       <c r="B435" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="C435" s="1" t="s">
         <v>1051</v>
-      </c>
-      <c r="C435" s="1" t="s">
-        <v>1052</v>
       </c>
       <c r="D435" s="1" t="s">
         <v>201</v>
@@ -15220,7 +15293,7 @@
         <v>2002</v>
       </c>
       <c r="F435" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="436" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -15228,10 +15301,10 @@
         <v>3428</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="C436" s="1" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="D436" s="1" t="s">
         <v>201</v>
@@ -15240,7 +15313,7 @@
         <v>2002</v>
       </c>
       <c r="F436" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="437" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -15248,19 +15321,19 @@
         <v>3429</v>
       </c>
       <c r="B437" s="1" t="s">
+        <v>1053</v>
+      </c>
+      <c r="C437" s="1" t="s">
         <v>1054</v>
       </c>
-      <c r="C437" s="1" t="s">
+      <c r="D437" s="1" t="s">
         <v>1055</v>
-      </c>
-      <c r="D437" s="1" t="s">
-        <v>1056</v>
       </c>
       <c r="E437" s="1">
         <v>1995</v>
       </c>
       <c r="F437" s="1" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="438" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -15268,10 +15341,10 @@
         <v>3430</v>
       </c>
       <c r="B438" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="C438" s="1" t="s">
         <v>1057</v>
-      </c>
-      <c r="C438" s="1" t="s">
-        <v>1058</v>
       </c>
       <c r="D438" s="1" t="s">
         <v>58</v>
@@ -15294,10 +15367,10 @@
         <v>3431</v>
       </c>
       <c r="B439" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="C439" s="1" t="s">
         <v>1059</v>
-      </c>
-      <c r="C439" s="1" t="s">
-        <v>1060</v>
       </c>
       <c r="D439" s="1" t="s">
         <v>51</v>
@@ -15320,10 +15393,10 @@
         <v>3432</v>
       </c>
       <c r="B440" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="C440" s="1" t="s">
         <v>1061</v>
-      </c>
-      <c r="C440" s="1" t="s">
-        <v>1062</v>
       </c>
       <c r="D440" s="1" t="s">
         <v>90</v>
@@ -15346,10 +15419,10 @@
         <v>3433</v>
       </c>
       <c r="B441" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C441" s="1" t="s">
         <v>1063</v>
-      </c>
-      <c r="C441" s="1" t="s">
-        <v>1064</v>
       </c>
       <c r="D441" s="1" t="s">
         <v>40</v>
@@ -15372,10 +15445,10 @@
         <v>3434</v>
       </c>
       <c r="B442" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="C442" s="1" t="s">
         <v>1065</v>
-      </c>
-      <c r="C442" s="1" t="s">
-        <v>1066</v>
       </c>
       <c r="D442" s="1" t="s">
         <v>77</v>
@@ -15398,10 +15471,10 @@
         <v>3435</v>
       </c>
       <c r="B443" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="C443" s="1" t="s">
         <v>1067</v>
-      </c>
-      <c r="C443" s="1" t="s">
-        <v>1068</v>
       </c>
       <c r="D443" s="1" t="s">
         <v>31</v>
@@ -15424,13 +15497,13 @@
         <v>3436</v>
       </c>
       <c r="B444" s="1" t="s">
+        <v>1068</v>
+      </c>
+      <c r="C444" s="1" t="s">
         <v>1069</v>
       </c>
-      <c r="C444" s="1" t="s">
+      <c r="D444" s="1" t="s">
         <v>1070</v>
-      </c>
-      <c r="D444" s="1" t="s">
-        <v>1071</v>
       </c>
       <c r="E444" s="1">
         <v>2018</v>
@@ -15442,7 +15515,7 @@
         <v>13</v>
       </c>
       <c r="H444" s="1" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
     </row>
     <row r="445" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -15450,10 +15523,10 @@
         <v>3437</v>
       </c>
       <c r="B445" s="1" t="s">
+        <v>1072</v>
+      </c>
+      <c r="C445" s="1" t="s">
         <v>1073</v>
-      </c>
-      <c r="C445" s="1" t="s">
-        <v>1074</v>
       </c>
       <c r="D445" s="1" t="s">
         <v>51</v>
@@ -15476,13 +15549,13 @@
         <v>3438</v>
       </c>
       <c r="B446" s="1" t="s">
+        <v>1074</v>
+      </c>
+      <c r="C446" s="1" t="s">
         <v>1075</v>
       </c>
-      <c r="C446" s="1" t="s">
+      <c r="D446" s="1" t="s">
         <v>1076</v>
-      </c>
-      <c r="D446" s="1" t="s">
-        <v>1077</v>
       </c>
       <c r="E446" s="1">
         <v>2019</v>
@@ -15502,13 +15575,13 @@
         <v>3439</v>
       </c>
       <c r="B447" s="1" t="s">
+        <v>1077</v>
+      </c>
+      <c r="C447" s="1" t="s">
         <v>1078</v>
       </c>
-      <c r="C447" s="1" t="s">
-        <v>1079</v>
-      </c>
       <c r="D447" s="1" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="E447" s="1">
         <v>2014</v>
@@ -15528,10 +15601,10 @@
         <v>3440</v>
       </c>
       <c r="B448" s="1" t="s">
+        <v>1079</v>
+      </c>
+      <c r="C448" s="1" t="s">
         <v>1080</v>
-      </c>
-      <c r="C448" s="1" t="s">
-        <v>1081</v>
       </c>
       <c r="D448" s="1" t="s">
         <v>54</v>
@@ -15546,7 +15619,7 @@
         <v>13</v>
       </c>
       <c r="H448" s="1" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="449" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -15554,10 +15627,10 @@
         <v>3441</v>
       </c>
       <c r="B449" s="1" t="s">
+        <v>1081</v>
+      </c>
+      <c r="C449" s="1" t="s">
         <v>1082</v>
-      </c>
-      <c r="C449" s="1" t="s">
-        <v>1083</v>
       </c>
       <c r="D449" s="1" t="s">
         <v>90</v>
@@ -15580,10 +15653,10 @@
         <v>3442</v>
       </c>
       <c r="B450" s="1" t="s">
+        <v>1083</v>
+      </c>
+      <c r="C450" s="1" t="s">
         <v>1084</v>
-      </c>
-      <c r="C450" s="1" t="s">
-        <v>1085</v>
       </c>
       <c r="D450" s="1" t="s">
         <v>328</v>
@@ -15606,10 +15679,10 @@
         <v>3443</v>
       </c>
       <c r="B451" s="1" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C451" s="1" t="s">
         <v>1086</v>
-      </c>
-      <c r="C451" s="1" t="s">
-        <v>1087</v>
       </c>
       <c r="D451" s="1" t="s">
         <v>31</v>
@@ -15632,10 +15705,10 @@
         <v>3444</v>
       </c>
       <c r="B452" s="1" t="s">
+        <v>1087</v>
+      </c>
+      <c r="C452" s="1" t="s">
         <v>1088</v>
-      </c>
-      <c r="C452" s="1" t="s">
-        <v>1089</v>
       </c>
       <c r="D452" s="1" t="s">
         <v>51</v>
@@ -15650,7 +15723,7 @@
         <v>13</v>
       </c>
       <c r="H452" s="1" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="453" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -15658,10 +15731,10 @@
         <v>3445</v>
       </c>
       <c r="B453" s="1" t="s">
+        <v>1090</v>
+      </c>
+      <c r="C453" s="1" t="s">
         <v>1091</v>
-      </c>
-      <c r="C453" s="1" t="s">
-        <v>1092</v>
       </c>
       <c r="D453" s="1" t="s">
         <v>40</v>
@@ -15684,10 +15757,10 @@
         <v>3446</v>
       </c>
       <c r="B454" s="1" t="s">
+        <v>1092</v>
+      </c>
+      <c r="C454" s="1" t="s">
         <v>1093</v>
-      </c>
-      <c r="C454" s="1" t="s">
-        <v>1094</v>
       </c>
       <c r="D454" s="1" t="s">
         <v>372</v>
@@ -15710,10 +15783,10 @@
         <v>3447</v>
       </c>
       <c r="B455" s="1" t="s">
+        <v>1094</v>
+      </c>
+      <c r="C455" s="1" t="s">
         <v>1095</v>
-      </c>
-      <c r="C455" s="1" t="s">
-        <v>1096</v>
       </c>
       <c r="D455" s="1" t="s">
         <v>90</v>
@@ -15736,10 +15809,10 @@
         <v>3448</v>
       </c>
       <c r="B456" s="1" t="s">
+        <v>1096</v>
+      </c>
+      <c r="C456" s="1" t="s">
         <v>1097</v>
-      </c>
-      <c r="C456" s="1" t="s">
-        <v>1098</v>
       </c>
       <c r="D456" s="1" t="s">
         <v>31</v>
@@ -15762,10 +15835,10 @@
         <v>3449</v>
       </c>
       <c r="B457" s="1" t="s">
+        <v>1098</v>
+      </c>
+      <c r="C457" s="1" t="s">
         <v>1099</v>
-      </c>
-      <c r="C457" s="1" t="s">
-        <v>1100</v>
       </c>
       <c r="D457" s="1" t="s">
         <v>237</v>
@@ -15788,10 +15861,10 @@
         <v>3450</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="C458" s="1" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="D458" s="1" t="s">
         <v>77</v>
@@ -15814,10 +15887,10 @@
         <v>3451</v>
       </c>
       <c r="B459" s="1" t="s">
+        <v>1101</v>
+      </c>
+      <c r="C459" s="1" t="s">
         <v>1102</v>
-      </c>
-      <c r="C459" s="1" t="s">
-        <v>1103</v>
       </c>
       <c r="D459" s="1" t="s">
         <v>40</v>
@@ -15840,10 +15913,10 @@
         <v>3452</v>
       </c>
       <c r="B460" s="1" t="s">
+        <v>1103</v>
+      </c>
+      <c r="C460" s="1" t="s">
         <v>1104</v>
-      </c>
-      <c r="C460" s="1" t="s">
-        <v>1105</v>
       </c>
       <c r="D460" s="1" t="s">
         <v>299</v>
@@ -15866,10 +15939,10 @@
         <v>3453</v>
       </c>
       <c r="B461" s="1" t="s">
+        <v>1105</v>
+      </c>
+      <c r="C461" s="1" t="s">
         <v>1106</v>
-      </c>
-      <c r="C461" s="1" t="s">
-        <v>1107</v>
       </c>
       <c r="D461" s="1" t="s">
         <v>31</v>
@@ -15892,10 +15965,10 @@
         <v>3454</v>
       </c>
       <c r="B462" s="1" t="s">
+        <v>1107</v>
+      </c>
+      <c r="C462" s="1" t="s">
         <v>1108</v>
-      </c>
-      <c r="C462" s="1" t="s">
-        <v>1109</v>
       </c>
       <c r="D462" s="1" t="s">
         <v>153</v>
@@ -15918,10 +15991,10 @@
         <v>3455</v>
       </c>
       <c r="B463" s="1" t="s">
+        <v>1109</v>
+      </c>
+      <c r="C463" s="1" t="s">
         <v>1110</v>
-      </c>
-      <c r="C463" s="1" t="s">
-        <v>1111</v>
       </c>
       <c r="D463" s="1" t="s">
         <v>328</v>
@@ -15944,10 +16017,10 @@
         <v>3456</v>
       </c>
       <c r="B464" s="1" t="s">
+        <v>1111</v>
+      </c>
+      <c r="C464" s="1" t="s">
         <v>1112</v>
-      </c>
-      <c r="C464" s="1" t="s">
-        <v>1113</v>
       </c>
       <c r="D464" s="1" t="s">
         <v>58</v>
@@ -15970,10 +16043,10 @@
         <v>3457</v>
       </c>
       <c r="B465" s="1" t="s">
+        <v>1113</v>
+      </c>
+      <c r="C465" s="1" t="s">
         <v>1114</v>
-      </c>
-      <c r="C465" s="1" t="s">
-        <v>1115</v>
       </c>
       <c r="D465" s="1" t="s">
         <v>87</v>
@@ -15996,13 +16069,13 @@
         <v>3458</v>
       </c>
       <c r="B466" s="1" t="s">
+        <v>1115</v>
+      </c>
+      <c r="C466" s="1" t="s">
         <v>1116</v>
       </c>
-      <c r="C466" s="1" t="s">
-        <v>1117</v>
-      </c>
       <c r="D466" s="1" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="E466" s="1">
         <v>2019</v>
@@ -16022,10 +16095,10 @@
         <v>3459</v>
       </c>
       <c r="B467" s="1" t="s">
+        <v>1117</v>
+      </c>
+      <c r="C467" s="1" t="s">
         <v>1118</v>
-      </c>
-      <c r="C467" s="1" t="s">
-        <v>1119</v>
       </c>
       <c r="D467" s="1" t="s">
         <v>375</v>
@@ -16048,13 +16121,13 @@
         <v>3460</v>
       </c>
       <c r="B468" s="1" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C468" s="1" t="s">
         <v>1120</v>
       </c>
-      <c r="C468" s="1" t="s">
+      <c r="D468" s="1" t="s">
         <v>1121</v>
-      </c>
-      <c r="D468" s="1" t="s">
-        <v>1122</v>
       </c>
       <c r="E468" s="1">
         <v>2009</v>
@@ -16074,10 +16147,10 @@
         <v>3461</v>
       </c>
       <c r="B469" s="1" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C469" s="1" t="s">
         <v>1123</v>
-      </c>
-      <c r="C469" s="1" t="s">
-        <v>1124</v>
       </c>
       <c r="D469" s="1" t="s">
         <v>234</v>
@@ -16100,10 +16173,10 @@
         <v>3462</v>
       </c>
       <c r="B470" s="1" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C470" s="1" t="s">
         <v>1125</v>
-      </c>
-      <c r="C470" s="1" t="s">
-        <v>1126</v>
       </c>
       <c r="D470" s="1" t="s">
         <v>31</v>
@@ -16126,13 +16199,13 @@
         <v>3463</v>
       </c>
       <c r="B471" s="1" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C471" s="1" t="s">
         <v>1127</v>
       </c>
-      <c r="C471" s="1" t="s">
-        <v>1128</v>
-      </c>
       <c r="D471" s="1" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="E471" s="1">
         <v>2019</v>
@@ -16152,10 +16225,10 @@
         <v>3464</v>
       </c>
       <c r="B472" s="1" t="s">
+        <v>1128</v>
+      </c>
+      <c r="C472" s="1" t="s">
         <v>1129</v>
-      </c>
-      <c r="C472" s="1" t="s">
-        <v>1130</v>
       </c>
       <c r="D472" s="1" t="s">
         <v>40</v>
@@ -16170,7 +16243,7 @@
         <v>13</v>
       </c>
       <c r="H472" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="473" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -16178,10 +16251,10 @@
         <v>3465</v>
       </c>
       <c r="B473" s="1" t="s">
+        <v>1131</v>
+      </c>
+      <c r="C473" s="1" t="s">
         <v>1132</v>
-      </c>
-      <c r="C473" s="1" t="s">
-        <v>1133</v>
       </c>
       <c r="D473" s="1" t="s">
         <v>11</v>
@@ -16204,13 +16277,13 @@
         <v>3466</v>
       </c>
       <c r="B474" s="1" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C474" s="1" t="s">
         <v>1134</v>
       </c>
-      <c r="C474" s="1" t="s">
-        <v>1135</v>
-      </c>
       <c r="D474" s="1" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="E474" s="1">
         <v>2014</v>
@@ -16230,13 +16303,13 @@
         <v>3467</v>
       </c>
       <c r="B475" s="1" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C475" s="1" t="s">
         <v>1136</v>
       </c>
-      <c r="C475" s="1" t="s">
+      <c r="D475" s="1" t="s">
         <v>1137</v>
-      </c>
-      <c r="D475" s="1" t="s">
-        <v>1138</v>
       </c>
       <c r="E475" s="1">
         <v>2019</v>
@@ -16256,10 +16329,10 @@
         <v>3468</v>
       </c>
       <c r="B476" s="1" t="s">
+        <v>1138</v>
+      </c>
+      <c r="C476" s="1" t="s">
         <v>1139</v>
-      </c>
-      <c r="C476" s="1" t="s">
-        <v>1140</v>
       </c>
       <c r="D476" s="1" t="s">
         <v>153</v>
@@ -16282,10 +16355,10 @@
         <v>3469</v>
       </c>
       <c r="B477" s="1" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C477" s="1" t="s">
         <v>1141</v>
-      </c>
-      <c r="C477" s="1" t="s">
-        <v>1142</v>
       </c>
       <c r="D477" s="1" t="s">
         <v>201</v>
@@ -16308,10 +16381,10 @@
         <v>3470</v>
       </c>
       <c r="B478" s="1" t="s">
+        <v>1142</v>
+      </c>
+      <c r="C478" s="1" t="s">
         <v>1143</v>
-      </c>
-      <c r="C478" s="1" t="s">
-        <v>1144</v>
       </c>
       <c r="D478" s="1" t="s">
         <v>24</v>
@@ -16334,13 +16407,13 @@
         <v>3471</v>
       </c>
       <c r="B479" s="1" t="s">
+        <v>1144</v>
+      </c>
+      <c r="C479" s="1" t="s">
         <v>1145</v>
       </c>
-      <c r="C479" s="1" t="s">
+      <c r="D479" s="1" t="s">
         <v>1146</v>
-      </c>
-      <c r="D479" s="1" t="s">
-        <v>1147</v>
       </c>
       <c r="E479" s="1">
         <v>2014</v>
@@ -16360,10 +16433,10 @@
         <v>3472</v>
       </c>
       <c r="B480" s="1" t="s">
+        <v>1147</v>
+      </c>
+      <c r="C480" s="1" t="s">
         <v>1148</v>
-      </c>
-      <c r="C480" s="1" t="s">
-        <v>1149</v>
       </c>
       <c r="D480" s="1" t="s">
         <v>31</v>
@@ -16386,10 +16459,10 @@
         <v>3473</v>
       </c>
       <c r="B481" s="1" t="s">
+        <v>1149</v>
+      </c>
+      <c r="C481" s="1" t="s">
         <v>1150</v>
-      </c>
-      <c r="C481" s="1" t="s">
-        <v>1151</v>
       </c>
       <c r="D481" s="1" t="s">
         <v>169</v>
@@ -16412,10 +16485,10 @@
         <v>3474</v>
       </c>
       <c r="B482" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="C482" s="1" t="s">
         <v>1152</v>
-      </c>
-      <c r="C482" s="1" t="s">
-        <v>1153</v>
       </c>
       <c r="D482" s="1" t="s">
         <v>87</v>
@@ -16438,10 +16511,10 @@
         <v>3475</v>
       </c>
       <c r="B483" s="1" t="s">
+        <v>1153</v>
+      </c>
+      <c r="C483" s="1" t="s">
         <v>1154</v>
-      </c>
-      <c r="C483" s="1" t="s">
-        <v>1155</v>
       </c>
       <c r="D483" s="1" t="s">
         <v>176</v>
@@ -16464,10 +16537,10 @@
         <v>3476</v>
       </c>
       <c r="B484" s="1" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C484" s="1" t="s">
         <v>1156</v>
-      </c>
-      <c r="C484" s="1" t="s">
-        <v>1157</v>
       </c>
       <c r="D484" s="1" t="s">
         <v>67</v>
@@ -16490,10 +16563,10 @@
         <v>3477</v>
       </c>
       <c r="B485" s="1" t="s">
+        <v>1157</v>
+      </c>
+      <c r="C485" s="1" t="s">
         <v>1158</v>
-      </c>
-      <c r="C485" s="1" t="s">
-        <v>1159</v>
       </c>
       <c r="D485" s="1" t="s">
         <v>31</v>
@@ -16516,10 +16589,10 @@
         <v>3478</v>
       </c>
       <c r="B486" s="1" t="s">
+        <v>1159</v>
+      </c>
+      <c r="C486" s="1" t="s">
         <v>1160</v>
-      </c>
-      <c r="C486" s="1" t="s">
-        <v>1161</v>
       </c>
       <c r="D486" s="1" t="s">
         <v>31</v>
@@ -16534,7 +16607,7 @@
         <v>13</v>
       </c>
       <c r="H486" s="1" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="487" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -16542,10 +16615,10 @@
         <v>3479</v>
       </c>
       <c r="B487" s="1" t="s">
+        <v>1162</v>
+      </c>
+      <c r="C487" s="1" t="s">
         <v>1163</v>
-      </c>
-      <c r="C487" s="1" t="s">
-        <v>1164</v>
       </c>
       <c r="D487" s="1" t="s">
         <v>328</v>
@@ -16560,7 +16633,7 @@
         <v>13</v>
       </c>
       <c r="H487" s="1" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
     </row>
     <row r="488" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -16568,10 +16641,10 @@
         <v>3480</v>
       </c>
       <c r="B488" s="1" t="s">
+        <v>1165</v>
+      </c>
+      <c r="C488" s="1" t="s">
         <v>1166</v>
-      </c>
-      <c r="C488" s="1" t="s">
-        <v>1167</v>
       </c>
       <c r="D488" s="1" t="s">
         <v>40</v>
@@ -16586,7 +16659,7 @@
         <v>13</v>
       </c>
       <c r="H488" s="1" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="489" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -16594,13 +16667,13 @@
         <v>3481</v>
       </c>
       <c r="B489" s="1" t="s">
+        <v>1167</v>
+      </c>
+      <c r="C489" s="1" t="s">
         <v>1168</v>
       </c>
-      <c r="C489" s="1" t="s">
-        <v>1169</v>
-      </c>
       <c r="D489" s="1" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="E489" s="1">
         <v>2019</v>
@@ -16620,10 +16693,10 @@
         <v>3482</v>
       </c>
       <c r="B490" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="C490" s="1" t="s">
         <v>1170</v>
-      </c>
-      <c r="C490" s="1" t="s">
-        <v>1171</v>
       </c>
       <c r="D490" s="1" t="s">
         <v>11</v>
@@ -16646,13 +16719,13 @@
         <v>3483</v>
       </c>
       <c r="B491" s="1" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C491" s="1" t="s">
         <v>1172</v>
       </c>
-      <c r="C491" s="1" t="s">
+      <c r="D491" s="1" t="s">
         <v>1173</v>
-      </c>
-      <c r="D491" s="1" t="s">
-        <v>1174</v>
       </c>
       <c r="E491" s="1">
         <v>2016</v>
@@ -16664,7 +16737,7 @@
         <v>13</v>
       </c>
       <c r="H491" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="492" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -16672,10 +16745,10 @@
         <v>3484</v>
       </c>
       <c r="B492" s="1" t="s">
+        <v>1175</v>
+      </c>
+      <c r="C492" s="1" t="s">
         <v>1176</v>
-      </c>
-      <c r="C492" s="1" t="s">
-        <v>1177</v>
       </c>
       <c r="D492" s="1" t="s">
         <v>176</v>
@@ -16698,10 +16771,10 @@
         <v>3485</v>
       </c>
       <c r="B493" s="1" t="s">
+        <v>1177</v>
+      </c>
+      <c r="C493" s="1" t="s">
         <v>1178</v>
-      </c>
-      <c r="C493" s="1" t="s">
-        <v>1179</v>
       </c>
       <c r="D493" s="1" t="s">
         <v>67</v>
@@ -16724,10 +16797,10 @@
         <v>3486</v>
       </c>
       <c r="B494" s="1" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C494" s="1" t="s">
         <v>1180</v>
-      </c>
-      <c r="C494" s="1" t="s">
-        <v>1181</v>
       </c>
       <c r="D494" s="1" t="s">
         <v>375</v>
@@ -16742,7 +16815,7 @@
         <v>13</v>
       </c>
       <c r="H494" s="1" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
     </row>
     <row r="495" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -16750,10 +16823,10 @@
         <v>3487</v>
       </c>
       <c r="B495" s="1" t="s">
+        <v>1181</v>
+      </c>
+      <c r="C495" s="1" t="s">
         <v>1182</v>
-      </c>
-      <c r="C495" s="1" t="s">
-        <v>1183</v>
       </c>
       <c r="D495" s="1" t="s">
         <v>361</v>
@@ -16768,7 +16841,7 @@
         <v>13</v>
       </c>
       <c r="H495" s="1" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="496" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -16776,10 +16849,10 @@
         <v>3488</v>
       </c>
       <c r="B496" s="1" t="s">
+        <v>1183</v>
+      </c>
+      <c r="C496" s="1" t="s">
         <v>1184</v>
-      </c>
-      <c r="C496" s="1" t="s">
-        <v>1185</v>
       </c>
       <c r="D496" s="1" t="s">
         <v>375</v>
@@ -16802,10 +16875,10 @@
         <v>3489</v>
       </c>
       <c r="B497" s="1" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C497" s="1" t="s">
         <v>1186</v>
-      </c>
-      <c r="C497" s="1" t="s">
-        <v>1187</v>
       </c>
       <c r="D497" s="1" t="s">
         <v>58</v>
